--- a/meta/paper1/Foundation Model Leaderboard Systems.xlsx
+++ b/meta/paper1/Foundation Model Leaderboard Systems.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="LES" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Leaderboard System" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Benchmark" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="Sheet199" sheetId="3" r:id="rId6"/>
   </sheets>

--- a/meta/paper1/Foundation Model Leaderboard Systems.xlsx
+++ b/meta/paper1/Foundation Model Leaderboard Systems.xlsx
@@ -7531,7 +7531,7 @@
     <t>SST-5</t>
   </si>
   <si>
-    <t>SQuAD (nl)</t>
+    <t>SQuAD (v2) (nl)</t>
   </si>
   <si>
     <t>NQiI</t>
@@ -37311,7 +37311,7 @@
         <v>1686</v>
       </c>
       <c r="X92" s="10" t="s">
-        <v>678</v>
+        <v>1183</v>
       </c>
       <c r="Y92" s="10" t="s">
         <v>1687</v>

--- a/meta/paper1/Foundation Model Leaderboard Systems.xlsx
+++ b/meta/paper1/Foundation Model Leaderboard Systems.xlsx
@@ -18,6 +18,18 @@
     <author/>
   </authors>
   <commentList>
+    <comment authorId="0" ref="A420">
+      <text>
+        <t xml:space="preserve">model- and data-centric leaderboards
+	-Jimmy Chou</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E420">
+      <text>
+        <t xml:space="preserve">This is questionable!
+	-Jimmy Chou</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="A173">
       <text>
         <t xml:space="preserve">https://github.com/OpenGenerativeAI/llm-colosseum
@@ -2438,7 +2450,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4573" uniqueCount="1818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4581" uniqueCount="1822">
   <si>
     <t>Leaderboard name</t>
   </si>
@@ -4928,6 +4940,18 @@
   </si>
   <si>
     <t>αNLI</t>
+  </si>
+  <si>
+    <t>PortraitMode-400</t>
+  </si>
+  <si>
+    <t>Algorithm,Dataset Slice</t>
+  </si>
+  <si>
+    <t>ip:Table Screenshot</t>
+  </si>
+  <si>
+    <t>Bytedance,ReLER Lab: Our Team | University of Technology Sydney,Commonwealth Scientific and Industrial Research Organisation,Mohamed Bin Zayed University of AI</t>
   </si>
   <si>
     <t>Supported benchmarks</t>
@@ -15180,7 +15204,7 @@
         <v>20</v>
       </c>
       <c r="H254" s="2" t="s">
-        <v>541</v>
+        <v>303</v>
       </c>
       <c r="I254" s="9" t="s">
         <v>44</v>
@@ -17938,7 +17962,7 @@
         <v>137</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>97</v>
+        <v>286</v>
       </c>
       <c r="F348" s="2" t="s">
         <v>19</v>
@@ -19723,10 +19747,34 @@
       </c>
     </row>
     <row r="420">
+      <c r="A420" s="10" t="s">
+        <v>826</v>
+      </c>
       <c r="C420" s="2"/>
-      <c r="E420" s="2"/>
-      <c r="H420" s="2"/>
-      <c r="L420" s="24"/>
+      <c r="D420" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E420" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="F420" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H420" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="I420" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J420" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="L420" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M420" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="421">
       <c r="C421" s="2"/>
@@ -23600,9 +23648,10 @@
     <hyperlink r:id="rId419" ref="A417"/>
     <hyperlink r:id="rId420" ref="A418"/>
     <hyperlink r:id="rId421" ref="A419"/>
+    <hyperlink r:id="rId422" ref="A420"/>
   </hyperlinks>
-  <drawing r:id="rId422"/>
-  <legacyDrawing r:id="rId423"/>
+  <drawing r:id="rId423"/>
+  <legacyDrawing r:id="rId424"/>
 </worksheet>
 </file>
 
@@ -23632,7 +23681,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="2">
@@ -23640,13 +23689,13 @@
         <v>41</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
@@ -23873,22 +23922,22 @@
         <v>301</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>175</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>692</v>
@@ -23897,7 +23946,7 @@
         <v>641</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="L3" s="10" t="s">
         <v>279</v>
@@ -23908,13 +23957,13 @@
         <v>51</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>483</v>
@@ -23923,19 +23972,19 @@
         <v>641</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
     </row>
     <row r="5">
@@ -23943,19 +23992,19 @@
         <v>61</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
@@ -24177,73 +24226,73 @@
         <v>92</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="R6" s="10" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="S6" s="10" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="T6" s="10" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="U6" s="10" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="V6" s="10" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="W6" s="10" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="X6" s="10" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="Y6" s="25"/>
       <c r="Z6" s="25"/>
@@ -24447,13 +24496,13 @@
         <v>95</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>749</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>117</v>
@@ -24462,46 +24511,46 @@
         <v>549</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="N7" s="10" t="s">
         <v>618</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="R7" s="10" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
       <c r="T7" s="10" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="U7" s="25"/>
       <c r="V7" s="25"/>
@@ -24709,13 +24758,13 @@
         <v>105</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>336</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
@@ -24939,91 +24988,91 @@
         <v>109</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="P9" s="10" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="R9" s="10" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="S9" s="10" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="T9" s="10" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="U9" s="10" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="V9" s="10" t="s">
         <v>156</v>
       </c>
       <c r="W9" s="10" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="X9" s="10" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="Y9" s="10" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="Z9" s="10" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="AA9" s="10" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="AB9" s="10" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="AC9" s="10" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="AD9" s="10" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="AE9" s="10" t="s">
         <v>549</v>
@@ -25035,552 +25084,552 @@
         <v>212</v>
       </c>
       <c r="AH9" s="10" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="AI9" s="10" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="AJ9" s="10" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="AK9" s="10" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="AL9" s="10" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="AM9" s="10" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="AN9" s="10" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="AO9" s="10" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="AP9" s="10" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="AQ9" s="10" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="AR9" s="10" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="AS9" s="10" t="s">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="AT9" s="10" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="AU9" s="10" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="AV9" s="10" t="s">
         <v>441</v>
       </c>
       <c r="AW9" s="10" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="AX9" s="10" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="AY9" s="10" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="AZ9" s="10" t="s">
-        <v>928</v>
+        <v>932</v>
       </c>
       <c r="BA9" s="10" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="BB9" s="10" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="BC9" s="10" t="s">
-        <v>931</v>
+        <v>935</v>
       </c>
       <c r="BD9" s="10" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
       <c r="BE9" s="10" t="s">
-        <v>933</v>
+        <v>937</v>
       </c>
       <c r="BF9" s="10" t="s">
-        <v>934</v>
+        <v>938</v>
       </c>
       <c r="BG9" s="10" t="s">
-        <v>935</v>
+        <v>939</v>
       </c>
       <c r="BH9" s="10" t="s">
-        <v>936</v>
+        <v>940</v>
       </c>
       <c r="BI9" s="10" t="s">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="BJ9" s="10" t="s">
-        <v>938</v>
+        <v>942</v>
       </c>
       <c r="BK9" s="10" t="s">
-        <v>939</v>
+        <v>943</v>
       </c>
       <c r="BL9" s="10" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="BM9" s="10" t="s">
         <v>291</v>
       </c>
       <c r="BN9" s="10" t="s">
-        <v>940</v>
+        <v>944</v>
       </c>
       <c r="BO9" s="10" t="s">
-        <v>941</v>
+        <v>945</v>
       </c>
       <c r="BP9" s="10" t="s">
-        <v>942</v>
+        <v>946</v>
       </c>
       <c r="BQ9" s="10" t="s">
-        <v>943</v>
+        <v>947</v>
       </c>
       <c r="BR9" s="10" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="BS9" s="10" t="s">
-        <v>944</v>
+        <v>948</v>
       </c>
       <c r="BT9" s="10" t="s">
-        <v>945</v>
+        <v>949</v>
       </c>
       <c r="BU9" s="25"/>
       <c r="BV9" s="10" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="BW9" s="10" t="s">
-        <v>947</v>
+        <v>951</v>
       </c>
       <c r="BX9" s="10" t="s">
-        <v>948</v>
+        <v>952</v>
       </c>
       <c r="BY9" s="10" t="s">
-        <v>949</v>
+        <v>953</v>
       </c>
       <c r="BZ9" s="10" t="s">
-        <v>950</v>
+        <v>954</v>
       </c>
       <c r="CA9" s="10" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
       <c r="CB9" s="10" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="CC9" s="10" t="s">
-        <v>952</v>
+        <v>956</v>
       </c>
       <c r="CD9" s="10" t="s">
-        <v>953</v>
+        <v>957</v>
       </c>
       <c r="CE9" s="10" t="s">
-        <v>954</v>
+        <v>958</v>
       </c>
       <c r="CF9" s="10" t="s">
-        <v>955</v>
+        <v>959</v>
       </c>
       <c r="CG9" s="10" t="s">
-        <v>956</v>
+        <v>960</v>
       </c>
       <c r="CH9" s="10" t="s">
-        <v>957</v>
+        <v>961</v>
       </c>
       <c r="CI9" s="10" t="s">
-        <v>958</v>
+        <v>962</v>
       </c>
       <c r="CJ9" s="10" t="s">
-        <v>959</v>
+        <v>963</v>
       </c>
       <c r="CK9" s="10" t="s">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="CL9" s="10" t="s">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="CM9" s="10" t="s">
-        <v>962</v>
+        <v>966</v>
       </c>
       <c r="CN9" s="10" t="s">
-        <v>963</v>
+        <v>967</v>
       </c>
       <c r="CO9" s="10" t="s">
-        <v>964</v>
+        <v>968</v>
       </c>
       <c r="CP9" s="10" t="s">
-        <v>965</v>
+        <v>969</v>
       </c>
       <c r="CQ9" s="10" t="s">
-        <v>966</v>
+        <v>970</v>
       </c>
       <c r="CR9" s="10" t="s">
-        <v>967</v>
+        <v>971</v>
       </c>
       <c r="CS9" s="10" t="s">
-        <v>968</v>
+        <v>972</v>
       </c>
       <c r="CT9" s="10" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="CU9" s="10" t="s">
-        <v>970</v>
+        <v>974</v>
       </c>
       <c r="CV9" s="10" t="s">
-        <v>971</v>
+        <v>975</v>
       </c>
       <c r="CW9" s="10" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="CX9" s="10" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="CY9" s="10" t="s">
-        <v>973</v>
+        <v>977</v>
       </c>
       <c r="CZ9" s="10" t="s">
-        <v>974</v>
+        <v>978</v>
       </c>
       <c r="DA9" s="10" t="s">
-        <v>975</v>
+        <v>979</v>
       </c>
       <c r="DB9" s="10" t="s">
-        <v>976</v>
+        <v>980</v>
       </c>
       <c r="DC9" s="10" t="s">
-        <v>977</v>
+        <v>981</v>
       </c>
       <c r="DD9" s="10" t="s">
-        <v>978</v>
+        <v>982</v>
       </c>
       <c r="DE9" s="25"/>
       <c r="DF9" s="10" t="s">
-        <v>979</v>
+        <v>983</v>
       </c>
       <c r="DG9" s="10" t="s">
-        <v>980</v>
+        <v>984</v>
       </c>
       <c r="DH9" s="10" t="s">
-        <v>981</v>
+        <v>985</v>
       </c>
       <c r="DI9" s="10" t="s">
-        <v>982</v>
+        <v>986</v>
       </c>
       <c r="DJ9" s="10" t="s">
-        <v>983</v>
+        <v>987</v>
       </c>
       <c r="DK9" s="10" t="s">
-        <v>984</v>
+        <v>988</v>
       </c>
       <c r="DL9" s="10" t="s">
-        <v>985</v>
+        <v>989</v>
       </c>
       <c r="DM9" s="10" t="s">
-        <v>986</v>
+        <v>990</v>
       </c>
       <c r="DN9" s="10" t="s">
-        <v>987</v>
+        <v>991</v>
       </c>
       <c r="DO9" s="10" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="DP9" s="10" t="s">
-        <v>988</v>
+        <v>992</v>
       </c>
       <c r="DQ9" s="10" t="s">
-        <v>989</v>
+        <v>993</v>
       </c>
       <c r="DR9" s="10" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="DS9" s="10" t="s">
-        <v>990</v>
+        <v>994</v>
       </c>
       <c r="DT9" s="10" t="s">
-        <v>991</v>
+        <v>995</v>
       </c>
       <c r="DU9" s="10" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="DV9" s="10" t="s">
-        <v>992</v>
+        <v>996</v>
       </c>
       <c r="DW9" s="10" t="s">
-        <v>993</v>
+        <v>997</v>
       </c>
       <c r="DX9" s="10" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="DY9" s="10" t="s">
-        <v>994</v>
+        <v>998</v>
       </c>
       <c r="DZ9" s="10" t="s">
-        <v>995</v>
+        <v>999</v>
       </c>
       <c r="EA9" s="10" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="EB9" s="10" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="EC9" s="10" t="s">
-        <v>998</v>
+        <v>1002</v>
       </c>
       <c r="ED9" s="10" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="EE9" s="10" t="s">
-        <v>999</v>
+        <v>1003</v>
       </c>
       <c r="EF9" s="10" t="s">
-        <v>1000</v>
+        <v>1004</v>
       </c>
       <c r="EG9" s="10" t="s">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="EH9" s="10" t="s">
-        <v>1002</v>
+        <v>1006</v>
       </c>
       <c r="EI9" s="10" t="s">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="EJ9" s="10" t="s">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="EK9" s="10" t="s">
-        <v>1005</v>
+        <v>1009</v>
       </c>
       <c r="EL9" s="10" t="s">
-        <v>1006</v>
+        <v>1010</v>
       </c>
       <c r="EM9" s="10" t="s">
-        <v>1007</v>
+        <v>1011</v>
       </c>
       <c r="EN9" s="10" t="s">
-        <v>1008</v>
+        <v>1012</v>
       </c>
       <c r="EO9" s="10" t="s">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="EP9" s="10" t="s">
-        <v>1010</v>
+        <v>1014</v>
       </c>
       <c r="EQ9" s="10" t="s">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="ER9" s="10" t="s">
-        <v>1012</v>
+        <v>1016</v>
       </c>
       <c r="ES9" s="10" t="s">
-        <v>1013</v>
+        <v>1017</v>
       </c>
       <c r="ET9" s="10" t="s">
-        <v>1014</v>
+        <v>1018</v>
       </c>
       <c r="EU9" s="10" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="EV9" s="10" t="s">
-        <v>1015</v>
+        <v>1019</v>
       </c>
       <c r="EW9" s="10" t="s">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="EX9" s="10" t="s">
-        <v>1017</v>
+        <v>1021</v>
       </c>
       <c r="EY9" s="10" t="s">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="EZ9" s="10" t="s">
-        <v>1019</v>
+        <v>1023</v>
       </c>
       <c r="FA9" s="10" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="FB9" s="10" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="FC9" s="10" t="s">
-        <v>1020</v>
+        <v>1024</v>
       </c>
       <c r="FD9" s="10" t="s">
-        <v>1021</v>
+        <v>1025</v>
       </c>
       <c r="FE9" s="10" t="s">
-        <v>1022</v>
+        <v>1026</v>
       </c>
       <c r="FF9" s="10" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="FG9" s="10" t="s">
-        <v>1024</v>
+        <v>1028</v>
       </c>
       <c r="FH9" s="10" t="s">
         <v>676</v>
       </c>
       <c r="FI9" s="10" t="s">
-        <v>1025</v>
+        <v>1029</v>
       </c>
       <c r="FJ9" s="10" t="s">
-        <v>1026</v>
+        <v>1030</v>
       </c>
       <c r="FK9" s="10" t="s">
-        <v>1027</v>
+        <v>1031</v>
       </c>
       <c r="FL9" s="10" t="s">
-        <v>1028</v>
+        <v>1032</v>
       </c>
       <c r="FM9" s="10" t="s">
-        <v>1029</v>
+        <v>1033</v>
       </c>
       <c r="FN9" s="10" t="s">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="FO9" s="10" t="s">
-        <v>1031</v>
+        <v>1035</v>
       </c>
       <c r="FP9" s="10" t="s">
-        <v>1032</v>
+        <v>1036</v>
       </c>
       <c r="FQ9" s="10" t="s">
-        <v>1033</v>
+        <v>1037</v>
       </c>
       <c r="FR9" s="10" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="FS9" s="10" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="FT9" s="10" t="s">
         <v>670</v>
       </c>
       <c r="FU9" s="10" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="FV9" s="10" t="s">
-        <v>1036</v>
+        <v>1040</v>
       </c>
       <c r="FW9" s="10" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="FX9" s="10" t="s">
-        <v>1037</v>
+        <v>1041</v>
       </c>
       <c r="FY9" s="10" t="s">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="FZ9" s="10" t="s">
         <v>684</v>
       </c>
       <c r="GA9" s="10" t="s">
-        <v>1039</v>
+        <v>1043</v>
       </c>
       <c r="GB9" s="10" t="s">
-        <v>1040</v>
+        <v>1044</v>
       </c>
       <c r="GC9" s="10" t="s">
-        <v>1041</v>
+        <v>1045</v>
       </c>
       <c r="GD9" s="10" t="s">
-        <v>1042</v>
+        <v>1046</v>
       </c>
       <c r="GE9" s="10" t="s">
-        <v>1043</v>
+        <v>1047</v>
       </c>
       <c r="GF9" s="10" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="GG9" s="10" t="s">
-        <v>1045</v>
+        <v>1049</v>
       </c>
       <c r="GH9" s="10" t="s">
-        <v>1046</v>
+        <v>1050</v>
       </c>
       <c r="GI9" s="10" t="s">
-        <v>1047</v>
+        <v>1051</v>
       </c>
       <c r="GJ9" s="10" t="s">
-        <v>1048</v>
+        <v>1052</v>
       </c>
       <c r="GK9" s="10" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="GL9" s="10" t="s">
-        <v>1049</v>
+        <v>1053</v>
       </c>
       <c r="GM9" s="10" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="GN9" s="10" t="s">
-        <v>1051</v>
+        <v>1055</v>
       </c>
       <c r="GO9" s="10" t="s">
-        <v>1052</v>
+        <v>1056</v>
       </c>
       <c r="GP9" s="10" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="GQ9" s="10" t="s">
-        <v>1053</v>
+        <v>1057</v>
       </c>
       <c r="GR9" s="10" t="s">
-        <v>1054</v>
+        <v>1058</v>
       </c>
       <c r="GS9" s="10" t="s">
-        <v>1055</v>
+        <v>1059</v>
       </c>
       <c r="GT9" s="10" t="s">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="GU9" s="10" t="s">
-        <v>1057</v>
+        <v>1061</v>
       </c>
       <c r="GV9" s="10" t="s">
-        <v>1058</v>
+        <v>1062</v>
       </c>
       <c r="GW9" s="10" t="s">
-        <v>1059</v>
+        <v>1063</v>
       </c>
       <c r="GX9" s="10" t="s">
-        <v>1060</v>
+        <v>1064</v>
       </c>
       <c r="GY9" s="10" t="s">
-        <v>1061</v>
+        <v>1065</v>
       </c>
       <c r="GZ9" s="10" t="s">
-        <v>1062</v>
+        <v>1066</v>
       </c>
       <c r="HA9" s="10" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="HB9" s="10" t="s">
-        <v>1063</v>
+        <v>1067</v>
       </c>
       <c r="HC9" s="10" t="s">
-        <v>1064</v>
+        <v>1068</v>
       </c>
       <c r="HD9" s="10" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="HE9" s="10" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="HF9" s="10" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
       <c r="HG9" s="10" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="HH9" s="10" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="HI9" s="10" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="HJ9" s="25"/>
       <c r="HK9" s="25"/>
@@ -25591,31 +25640,31 @@
         <v>112</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>1070</v>
+        <v>1074</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>472</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>1071</v>
+        <v>1075</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>1072</v>
+        <v>1076</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>1073</v>
+        <v>1077</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>1074</v>
+        <v>1078</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>1075</v>
+        <v>1079</v>
       </c>
       <c r="I10" s="10" t="s">
         <v>275</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>1076</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="11">
@@ -25629,10 +25678,10 @@
         <v>611</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>1077</v>
+        <v>1081</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>1078</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="12">
@@ -25646,13 +25695,13 @@
         <v>278</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>1079</v>
+        <v>1083</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>1080</v>
+        <v>1084</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>1081</v>
+        <v>1085</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>652</v>
@@ -25661,7 +25710,7 @@
         <v>476</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>1082</v>
+        <v>1086</v>
       </c>
       <c r="J12" s="10" t="s">
         <v>509</v>
@@ -25884,40 +25933,40 @@
         <v>170</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>1083</v>
+        <v>1087</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>1084</v>
+        <v>1088</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>1085</v>
+        <v>1089</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>1086</v>
+        <v>1090</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>1087</v>
+        <v>1091</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>1088</v>
+        <v>1092</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>1089</v>
+        <v>1093</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>1090</v>
+        <v>1094</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>1091</v>
+        <v>1095</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>1092</v>
+        <v>1096</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>1093</v>
+        <v>1097</v>
       </c>
       <c r="N13" s="25"/>
       <c r="O13" s="25"/>
@@ -26132,10 +26181,10 @@
         <v>172</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>1094</v>
+        <v>1098</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>1095</v>
+        <v>1099</v>
       </c>
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
@@ -26357,97 +26406,97 @@
     </row>
     <row r="15">
       <c r="A15" s="10" t="s">
-        <v>1096</v>
+        <v>1100</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>1097</v>
+        <v>1101</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>1098</v>
+        <v>1102</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>1099</v>
+        <v>1103</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>1100</v>
+        <v>1104</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>1102</v>
+        <v>1106</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>1103</v>
+        <v>1107</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>1104</v>
+        <v>1108</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>1105</v>
+        <v>1109</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>1106</v>
+        <v>1110</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>1107</v>
+        <v>1111</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>1108</v>
+        <v>1112</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="O15" s="10" t="s">
-        <v>1086</v>
+        <v>1090</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>1109</v>
+        <v>1113</v>
       </c>
       <c r="Q15" s="10" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
       <c r="R15" s="10" t="s">
-        <v>1111</v>
+        <v>1115</v>
       </c>
       <c r="S15" s="10" t="s">
-        <v>1112</v>
+        <v>1116</v>
       </c>
       <c r="T15" s="10" t="s">
-        <v>1113</v>
+        <v>1117</v>
       </c>
       <c r="U15" s="10" t="s">
-        <v>1114</v>
+        <v>1118</v>
       </c>
       <c r="V15" s="10" t="s">
-        <v>1115</v>
+        <v>1119</v>
       </c>
       <c r="W15" s="10" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
       <c r="X15" s="10" t="s">
-        <v>1117</v>
+        <v>1121</v>
       </c>
       <c r="Y15" s="10" t="s">
-        <v>1083</v>
+        <v>1087</v>
       </c>
       <c r="Z15" s="10" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
       <c r="AA15" s="10" t="s">
-        <v>1084</v>
+        <v>1088</v>
       </c>
       <c r="AB15" s="10" t="s">
-        <v>1085</v>
+        <v>1089</v>
       </c>
       <c r="AC15" s="10" t="s">
-        <v>1119</v>
+        <v>1123</v>
       </c>
       <c r="AD15" s="10" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="AE15" s="10" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
       <c r="AF15" s="25"/>
       <c r="AG15" s="25"/>
@@ -26657,7 +26706,7 @@
     </row>
     <row r="18">
       <c r="A18" s="10" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>483</v>
@@ -26666,7 +26715,7 @@
         <v>175</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>288</v>
@@ -26894,10 +26943,10 @@
         <v>212</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>1124</v>
+        <v>1128</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>623</v>
@@ -26906,10 +26955,10 @@
         <v>182</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>1125</v>
+        <v>1129</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="H19" s="10" t="s">
         <v>655</v>
@@ -26926,31 +26975,31 @@
         <v>437</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>1127</v>
+        <v>1131</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>721</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>1128</v>
+        <v>1132</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>1129</v>
+        <v>1133</v>
       </c>
       <c r="H20" s="10" t="s">
         <v>684</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>1130</v>
+        <v>1134</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>1131</v>
+        <v>1135</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>1132</v>
+        <v>1136</v>
       </c>
       <c r="M20" s="10" t="s">
         <v>336</v>
@@ -26959,10 +27008,10 @@
         <v>446</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>1133</v>
+        <v>1137</v>
       </c>
       <c r="P20" s="10" t="s">
-        <v>1134</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="21">
@@ -26970,10 +27019,10 @@
         <v>220</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>1135</v>
+        <v>1139</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>1136</v>
+        <v>1140</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>61</v>
@@ -26982,19 +27031,19 @@
         <v>586</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>1128</v>
+        <v>1132</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>600</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>1137</v>
+        <v>1141</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="K21" s="10" t="s">
         <v>441</v>
@@ -27003,7 +27052,7 @@
         <v>301</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>1138</v>
+        <v>1142</v>
       </c>
       <c r="N21" s="10" t="s">
         <v>734</v>
@@ -27020,22 +27069,22 @@
         <v>248</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>1139</v>
+        <v>1143</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>1140</v>
+        <v>1144</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>1141</v>
+        <v>1145</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>1142</v>
+        <v>1146</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>1143</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="23">
@@ -27043,13 +27092,13 @@
         <v>250</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>1144</v>
+        <v>1148</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>483</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
     </row>
     <row r="24">
@@ -27285,19 +27334,19 @@
         <v>260</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>1145</v>
+        <v>1149</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>336</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>1146</v>
+        <v>1150</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>301</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
@@ -27519,31 +27568,31 @@
         <v>264</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>1147</v>
+        <v>1151</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>1148</v>
+        <v>1152</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>1084</v>
+        <v>1088</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>1085</v>
+        <v>1089</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>1149</v>
+        <v>1153</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>1088</v>
+        <v>1092</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>1087</v>
+        <v>1091</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>1091</v>
+        <v>1095</v>
       </c>
       <c r="K26" s="25"/>
       <c r="L26" s="25"/>
@@ -27770,7 +27819,7 @@
         <v>754</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>1150</v>
+        <v>1154</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>624</v>
@@ -27779,31 +27828,31 @@
         <v>175</v>
       </c>
       <c r="H27" s="10" t="s">
+        <v>1155</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>1092</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>1095</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>1091</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>1156</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>1088</v>
+      </c>
+      <c r="N27" s="10" t="s">
+        <v>834</v>
+      </c>
+      <c r="O27" s="10" t="s">
+        <v>1153</v>
+      </c>
+      <c r="P27" s="10" t="s">
         <v>1151</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>1088</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>1091</v>
-      </c>
-      <c r="K27" s="10" t="s">
-        <v>1087</v>
-      </c>
-      <c r="L27" s="10" t="s">
-        <v>1152</v>
-      </c>
-      <c r="M27" s="10" t="s">
-        <v>1084</v>
-      </c>
-      <c r="N27" s="10" t="s">
-        <v>830</v>
-      </c>
-      <c r="O27" s="10" t="s">
-        <v>1149</v>
-      </c>
-      <c r="P27" s="10" t="s">
-        <v>1147</v>
       </c>
       <c r="Q27" s="10" t="s">
         <v>278</v>
@@ -27812,22 +27861,22 @@
         <v>798</v>
       </c>
       <c r="S27" s="10" t="s">
-        <v>1153</v>
+        <v>1157</v>
       </c>
       <c r="T27" s="10" t="s">
-        <v>1154</v>
+        <v>1158</v>
       </c>
       <c r="U27" s="10" t="s">
         <v>509</v>
       </c>
       <c r="V27" s="10" t="s">
-        <v>1155</v>
+        <v>1159</v>
       </c>
       <c r="W27" s="10" t="s">
-        <v>1156</v>
+        <v>1160</v>
       </c>
       <c r="X27" s="10" t="s">
-        <v>1157</v>
+        <v>1161</v>
       </c>
       <c r="Y27" s="10" t="s">
         <v>510</v>
@@ -27836,46 +27885,46 @@
         <v>761</v>
       </c>
       <c r="AA27" s="10" t="s">
-        <v>1158</v>
+        <v>1162</v>
       </c>
       <c r="AB27" s="10" t="s">
-        <v>1159</v>
+        <v>1163</v>
       </c>
       <c r="AC27" s="10" t="s">
-        <v>1160</v>
+        <v>1164</v>
       </c>
       <c r="AD27" s="10" t="s">
-        <v>1161</v>
+        <v>1165</v>
       </c>
       <c r="AE27" s="10" t="s">
         <v>280</v>
       </c>
       <c r="AF27" s="10" t="s">
-        <v>1162</v>
+        <v>1166</v>
       </c>
       <c r="AG27" s="10" t="s">
-        <v>1163</v>
+        <v>1167</v>
       </c>
       <c r="AH27" s="10" t="s">
-        <v>1164</v>
+        <v>1168</v>
       </c>
       <c r="AI27" s="10" t="s">
-        <v>1165</v>
+        <v>1169</v>
       </c>
       <c r="AJ27" s="10" t="s">
-        <v>1166</v>
+        <v>1170</v>
       </c>
       <c r="AK27" s="10" t="s">
         <v>39</v>
       </c>
       <c r="AL27" s="10" t="s">
-        <v>1167</v>
+        <v>1171</v>
       </c>
       <c r="AM27" s="10" t="s">
-        <v>1168</v>
+        <v>1172</v>
       </c>
       <c r="AN27" s="10" t="s">
-        <v>1169</v>
+        <v>1173</v>
       </c>
       <c r="AO27" s="10" t="s">
         <v>336</v>
@@ -27884,13 +27933,13 @@
         <v>54</v>
       </c>
       <c r="AQ27" s="10" t="s">
-        <v>1170</v>
+        <v>1174</v>
       </c>
       <c r="AR27" s="10" t="s">
         <v>390</v>
       </c>
       <c r="AS27" s="10" t="s">
-        <v>1171</v>
+        <v>1175</v>
       </c>
       <c r="AT27" s="25"/>
       <c r="AU27" s="25"/>
@@ -28073,19 +28122,19 @@
         <v>294</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>1172</v>
+        <v>1176</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>1173</v>
+        <v>1177</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>821</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>1174</v>
+        <v>1178</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>1175</v>
+        <v>1179</v>
       </c>
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
@@ -28304,7 +28353,7 @@
     </row>
     <row r="29">
       <c r="A29" s="10" t="s">
-        <v>1176</v>
+        <v>1180</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>319</v>
@@ -28348,13 +28397,13 @@
         <v>301</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>1177</v>
+        <v>1181</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>182</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>1136</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="31">
@@ -28362,22 +28411,22 @@
         <v>308</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>1178</v>
+        <v>1182</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>751</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>1179</v>
+        <v>1183</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>1180</v>
+        <v>1184</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
       <c r="H31" s="10" t="s">
         <v>821</v>
@@ -28389,34 +28438,34 @@
         <v>623</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>1184</v>
+        <v>1188</v>
       </c>
       <c r="M31" s="10" t="s">
-        <v>1185</v>
+        <v>1189</v>
       </c>
       <c r="N31" s="10" t="s">
         <v>339</v>
       </c>
       <c r="O31" s="10" t="s">
-        <v>1186</v>
+        <v>1190</v>
       </c>
       <c r="P31" s="10" t="s">
-        <v>1187</v>
+        <v>1191</v>
       </c>
       <c r="Q31" s="10" t="s">
-        <v>1188</v>
+        <v>1192</v>
       </c>
       <c r="R31" s="10" t="s">
-        <v>1189</v>
+        <v>1193</v>
       </c>
       <c r="S31" s="10" t="s">
-        <v>1190</v>
+        <v>1194</v>
       </c>
       <c r="T31" s="10" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
     </row>
     <row r="32">
@@ -28427,94 +28476,94 @@
         <v>509</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>1155</v>
+        <v>1159</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>1191</v>
+        <v>1195</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>1192</v>
+        <v>1196</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>1193</v>
+        <v>1197</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>1194</v>
+        <v>1198</v>
       </c>
       <c r="H32" s="10" t="s">
         <v>810</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>1195</v>
+        <v>1199</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>1196</v>
+        <v>1200</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>1197</v>
+        <v>1201</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>1198</v>
+        <v>1202</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>1199</v>
+        <v>1203</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>1200</v>
+        <v>1204</v>
       </c>
       <c r="O32" s="10" t="s">
-        <v>1201</v>
+        <v>1205</v>
       </c>
       <c r="P32" s="10" t="s">
-        <v>1202</v>
+        <v>1206</v>
       </c>
       <c r="Q32" s="10" t="s">
-        <v>1203</v>
+        <v>1207</v>
       </c>
       <c r="R32" s="10" t="s">
-        <v>1204</v>
+        <v>1208</v>
       </c>
       <c r="S32" s="10" t="s">
-        <v>1205</v>
+        <v>1209</v>
       </c>
       <c r="T32" s="10" t="s">
-        <v>1206</v>
+        <v>1210</v>
       </c>
       <c r="U32" s="10" t="s">
-        <v>1207</v>
+        <v>1211</v>
       </c>
       <c r="V32" s="10" t="s">
-        <v>1208</v>
+        <v>1212</v>
       </c>
       <c r="W32" s="10" t="s">
-        <v>1209</v>
+        <v>1213</v>
       </c>
       <c r="X32" s="10" t="s">
-        <v>1210</v>
+        <v>1214</v>
       </c>
       <c r="Y32" s="10" t="s">
-        <v>1211</v>
+        <v>1215</v>
       </c>
       <c r="Z32" s="10" t="s">
-        <v>1208</v>
+        <v>1212</v>
       </c>
       <c r="AA32" s="10" t="s">
-        <v>1212</v>
+        <v>1216</v>
       </c>
       <c r="AB32" s="10" t="s">
-        <v>1213</v>
+        <v>1217</v>
       </c>
       <c r="AC32" s="10" t="s">
-        <v>1214</v>
+        <v>1218</v>
       </c>
       <c r="AD32" s="10" t="s">
-        <v>1215</v>
+        <v>1219</v>
       </c>
       <c r="AE32" s="10" t="s">
-        <v>1216</v>
+        <v>1220</v>
       </c>
       <c r="AF32" s="10" t="s">
-        <v>1217</v>
+        <v>1221</v>
       </c>
       <c r="AG32" s="25"/>
       <c r="AH32" s="25"/>
@@ -28713,7 +28762,7 @@
         <v>36</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>1218</v>
+        <v>1222</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>319</v>
@@ -28943,16 +28992,16 @@
         <v>125</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>1219</v>
+        <v>1223</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>1220</v>
+        <v>1224</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>1221</v>
+        <v>1225</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>1222</v>
+        <v>1226</v>
       </c>
       <c r="G34" s="10" t="s">
         <v>319</v>
@@ -28967,7 +29016,7 @@
         <v>483</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="L34" s="10" t="s">
         <v>182</v>
@@ -28976,7 +29025,7 @@
         <v>821</v>
       </c>
       <c r="N34" s="10" t="s">
-        <v>1150</v>
+        <v>1154</v>
       </c>
       <c r="O34" s="10" t="s">
         <v>157</v>
@@ -28988,28 +29037,28 @@
         <v>732</v>
       </c>
       <c r="R34" s="10" t="s">
-        <v>1223</v>
+        <v>1227</v>
       </c>
       <c r="S34" s="10" t="s">
-        <v>1224</v>
+        <v>1228</v>
       </c>
       <c r="T34" s="10" t="s">
-        <v>1225</v>
+        <v>1229</v>
       </c>
       <c r="U34" s="10" t="s">
-        <v>1226</v>
+        <v>1230</v>
       </c>
       <c r="V34" s="10" t="s">
-        <v>1227</v>
+        <v>1231</v>
       </c>
       <c r="W34" s="10" t="s">
-        <v>1228</v>
+        <v>1232</v>
       </c>
       <c r="X34" s="10" t="s">
-        <v>1229</v>
+        <v>1233</v>
       </c>
       <c r="Y34" s="10" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="Z34" s="10" t="s">
         <v>301</v>
@@ -29024,73 +29073,73 @@
         <v>76</v>
       </c>
       <c r="AD34" s="10" t="s">
-        <v>1230</v>
+        <v>1234</v>
       </c>
       <c r="AE34" s="10" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="AF34" s="10" t="s">
-        <v>1231</v>
+        <v>1235</v>
       </c>
       <c r="AG34" s="10" t="s">
-        <v>1232</v>
+        <v>1236</v>
       </c>
       <c r="AH34" s="10" t="s">
-        <v>1233</v>
+        <v>1237</v>
       </c>
       <c r="AI34" s="10" t="s">
-        <v>1234</v>
+        <v>1238</v>
       </c>
       <c r="AJ34" s="10" t="s">
-        <v>1235</v>
+        <v>1239</v>
       </c>
       <c r="AK34" s="10" t="s">
-        <v>1236</v>
+        <v>1240</v>
       </c>
       <c r="AL34" s="10" t="s">
-        <v>1237</v>
+        <v>1241</v>
       </c>
       <c r="AM34" s="10" t="s">
-        <v>1238</v>
+        <v>1242</v>
       </c>
       <c r="AN34" s="10" t="s">
-        <v>1239</v>
+        <v>1243</v>
       </c>
       <c r="AO34" s="10" t="s">
         <v>811</v>
       </c>
       <c r="AP34" s="10" t="s">
-        <v>1178</v>
+        <v>1182</v>
       </c>
       <c r="AQ34" s="10" t="s">
-        <v>1240</v>
+        <v>1244</v>
       </c>
       <c r="AR34" s="10" t="s">
-        <v>1241</v>
+        <v>1245</v>
       </c>
       <c r="AS34" s="10" t="s">
-        <v>1242</v>
+        <v>1246</v>
       </c>
       <c r="AT34" s="10" t="s">
-        <v>1243</v>
+        <v>1247</v>
       </c>
       <c r="AU34" s="10" t="s">
-        <v>1244</v>
+        <v>1248</v>
       </c>
       <c r="AV34" s="10" t="s">
         <v>451</v>
       </c>
       <c r="AW34" s="10" t="s">
-        <v>1245</v>
+        <v>1249</v>
       </c>
       <c r="AX34" s="10" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="AY34" s="10" t="s">
-        <v>1247</v>
+        <v>1251</v>
       </c>
       <c r="AZ34" s="10" t="s">
-        <v>1248</v>
+        <v>1252</v>
       </c>
       <c r="BC34" s="25"/>
       <c r="BD34" s="25"/>
@@ -29264,25 +29313,25 @@
         <v>325</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>1249</v>
+        <v>1253</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>1250</v>
+        <v>1254</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>1251</v>
+        <v>1255</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>1252</v>
+        <v>1256</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>1253</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="36">
@@ -29290,10 +29339,10 @@
         <v>327</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>1220</v>
+        <v>1224</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>1221</v>
+        <v>1225</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>586</v>
@@ -29308,7 +29357,7 @@
         <v>301</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>1244</v>
+        <v>1248</v>
       </c>
       <c r="I36" s="10" t="s">
         <v>811</v>
@@ -29317,7 +29366,7 @@
         <v>451</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>1178</v>
+        <v>1182</v>
       </c>
       <c r="L36" s="25"/>
       <c r="M36" s="25"/>
@@ -29760,7 +29809,7 @@
         <v>337</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>1254</v>
+        <v>1258</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>253</v>
@@ -29780,16 +29829,16 @@
         <v>242</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>336</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="I39" s="25"/>
       <c r="J39" s="25"/>
@@ -30015,13 +30064,13 @@
         <v>676</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>715</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
       <c r="G40" s="25"/>
       <c r="H40" s="25"/>
@@ -30243,7 +30292,7 @@
         <v>356</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>1258</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="42">
@@ -30256,61 +30305,61 @@
         <v>372</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>1259</v>
+        <v>1263</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>1260</v>
+        <v>1264</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>1261</v>
+        <v>1265</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>1262</v>
+        <v>1266</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>1263</v>
+        <v>1267</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>1264</v>
+        <v>1268</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>1265</v>
+        <v>1269</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>1266</v>
+        <v>1270</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>1267</v>
+        <v>1271</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>1268</v>
+        <v>1272</v>
       </c>
       <c r="L43" s="10" t="s">
-        <v>1269</v>
+        <v>1273</v>
       </c>
       <c r="M43" s="10" t="s">
-        <v>1270</v>
+        <v>1274</v>
       </c>
       <c r="N43" s="10" t="s">
-        <v>1271</v>
+        <v>1275</v>
       </c>
       <c r="O43" s="10" t="s">
         <v>376</v>
       </c>
       <c r="P43" s="10" t="s">
-        <v>1272</v>
+        <v>1276</v>
       </c>
       <c r="Q43" s="10" t="s">
-        <v>1273</v>
+        <v>1277</v>
       </c>
       <c r="R43" s="10" t="s">
-        <v>1274</v>
+        <v>1278</v>
       </c>
       <c r="S43" s="10" t="s">
-        <v>1275</v>
+        <v>1279</v>
       </c>
       <c r="T43" s="10" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="U43" s="25"/>
       <c r="V43" s="25"/>
@@ -30518,7 +30567,7 @@
         <v>377</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>1276</v>
+        <v>1280</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>301</v>
@@ -30527,55 +30576,55 @@
         <v>620</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>1277</v>
+        <v>1281</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>1278</v>
+        <v>1282</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>1279</v>
+        <v>1283</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>1280</v>
+        <v>1284</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>1281</v>
+        <v>1285</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>1282</v>
+        <v>1286</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>1283</v>
+        <v>1287</v>
       </c>
       <c r="L44" s="10" t="s">
         <v>549</v>
       </c>
       <c r="M44" s="10" t="s">
-        <v>1220</v>
+        <v>1224</v>
       </c>
       <c r="N44" s="10" t="s">
-        <v>1284</v>
+        <v>1288</v>
       </c>
       <c r="O44" s="10" t="s">
-        <v>1285</v>
+        <v>1289</v>
       </c>
       <c r="P44" s="10" t="s">
-        <v>1286</v>
+        <v>1290</v>
       </c>
       <c r="Q44" s="10" t="s">
-        <v>1287</v>
+        <v>1291</v>
       </c>
       <c r="R44" s="10" t="s">
-        <v>1288</v>
+        <v>1292</v>
       </c>
       <c r="S44" s="10" t="s">
-        <v>1289</v>
+        <v>1293</v>
       </c>
       <c r="T44" s="10" t="s">
-        <v>1290</v>
+        <v>1294</v>
       </c>
       <c r="U44" s="10" t="s">
-        <v>1291</v>
+        <v>1295</v>
       </c>
       <c r="V44" s="25"/>
       <c r="W44" s="25"/>
@@ -30782,40 +30831,40 @@
         <v>381</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>1292</v>
+        <v>1296</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>1293</v>
+        <v>1297</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>1294</v>
+        <v>1298</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>1295</v>
+        <v>1299</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>1296</v>
+        <v>1300</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>1297</v>
+        <v>1301</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>1298</v>
+        <v>1302</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>1299</v>
+        <v>1303</v>
       </c>
       <c r="J45" s="10" t="s">
-        <v>1300</v>
+        <v>1304</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>1301</v>
+        <v>1305</v>
       </c>
       <c r="L45" s="10" t="s">
-        <v>1302</v>
+        <v>1306</v>
       </c>
       <c r="M45" s="10" t="s">
-        <v>1303</v>
+        <v>1307</v>
       </c>
       <c r="N45" s="25"/>
       <c r="O45" s="25"/>
@@ -31045,7 +31094,7 @@
         <v>336</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="H46" s="10" t="s">
         <v>125</v>
@@ -31057,7 +31106,7 @@
         <v>586</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>1222</v>
+        <v>1226</v>
       </c>
       <c r="L46" s="10" t="s">
         <v>809</v>
@@ -31276,7 +31325,7 @@
         <v>394</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>1304</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="48">
@@ -31292,7 +31341,7 @@
         <v>399</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>1136</v>
+        <v>1140</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>319</v>
@@ -31530,13 +31579,13 @@
         <v>408</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>1221</v>
+        <v>1225</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>1305</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="51">
@@ -31547,10 +31596,10 @@
         <v>483</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>1177</v>
+        <v>1181</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>1136</v>
+        <v>1140</v>
       </c>
       <c r="E51" s="25"/>
       <c r="F51" s="25"/>
@@ -31774,67 +31823,67 @@
         <v>423</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>1270</v>
+        <v>1274</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>1271</v>
+        <v>1275</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>1306</v>
+        <v>1310</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>1307</v>
+        <v>1311</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>1220</v>
+        <v>1224</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>1284</v>
+        <v>1288</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>1286</v>
+        <v>1290</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>1287</v>
+        <v>1291</v>
       </c>
       <c r="K52" s="10" t="s">
-        <v>1289</v>
+        <v>1293</v>
       </c>
       <c r="L52" s="10" t="s">
-        <v>1308</v>
+        <v>1312</v>
       </c>
       <c r="M52" s="10" t="s">
         <v>751</v>
       </c>
       <c r="N52" s="10" t="s">
-        <v>1309</v>
+        <v>1313</v>
       </c>
       <c r="O52" s="10" t="s">
         <v>635</v>
       </c>
       <c r="P52" s="10" t="s">
-        <v>1310</v>
+        <v>1314</v>
       </c>
       <c r="Q52" s="10" t="s">
-        <v>1311</v>
+        <v>1315</v>
       </c>
       <c r="R52" s="10" t="s">
-        <v>1312</v>
+        <v>1316</v>
       </c>
       <c r="S52" s="10" t="s">
-        <v>1313</v>
+        <v>1317</v>
       </c>
       <c r="T52" s="10" t="s">
-        <v>1314</v>
+        <v>1318</v>
       </c>
       <c r="U52" s="10" t="s">
-        <v>1315</v>
+        <v>1319</v>
       </c>
       <c r="V52" s="10" t="s">
-        <v>1316</v>
+        <v>1320</v>
       </c>
       <c r="W52" s="25"/>
       <c r="X52" s="25"/>
@@ -32040,7 +32089,7 @@
         <v>426</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>1317</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="54">
@@ -32048,7 +32097,7 @@
         <v>428</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>1158</v>
+        <v>1162</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>156</v>
@@ -32057,61 +32106,61 @@
         <v>599</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>1157</v>
+        <v>1161</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>1319</v>
+        <v>1323</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>1320</v>
+        <v>1324</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>1321</v>
+        <v>1325</v>
       </c>
       <c r="J54" s="10" t="s">
-        <v>1322</v>
+        <v>1326</v>
       </c>
       <c r="K54" s="10" t="s">
-        <v>1323</v>
+        <v>1327</v>
       </c>
       <c r="L54" s="10" t="s">
-        <v>1324</v>
+        <v>1328</v>
       </c>
       <c r="M54" s="10" t="s">
-        <v>1325</v>
+        <v>1329</v>
       </c>
       <c r="N54" s="10" t="s">
-        <v>1326</v>
+        <v>1330</v>
       </c>
       <c r="O54" s="10" t="s">
-        <v>1327</v>
+        <v>1331</v>
       </c>
       <c r="P54" s="10" t="s">
-        <v>1328</v>
+        <v>1332</v>
       </c>
       <c r="Q54" s="10" t="s">
-        <v>1329</v>
+        <v>1333</v>
       </c>
       <c r="R54" s="10" t="s">
-        <v>1330</v>
+        <v>1334</v>
       </c>
       <c r="S54" s="10" t="s">
-        <v>1331</v>
+        <v>1335</v>
       </c>
       <c r="T54" s="10" t="s">
-        <v>1332</v>
+        <v>1336</v>
       </c>
       <c r="U54" s="10" t="s">
-        <v>1333</v>
+        <v>1337</v>
       </c>
       <c r="V54" s="10" t="s">
-        <v>1334</v>
+        <v>1338</v>
       </c>
       <c r="W54" s="10" t="s">
-        <v>1335</v>
+        <v>1339</v>
       </c>
       <c r="X54" s="10" t="s">
         <v>544</v>
@@ -32120,19 +32169,19 @@
         <v>278</v>
       </c>
       <c r="Z54" s="10" t="s">
-        <v>1336</v>
+        <v>1340</v>
       </c>
       <c r="AA54" s="10" t="s">
         <v>239</v>
       </c>
       <c r="AB54" s="10" t="s">
-        <v>1337</v>
+        <v>1341</v>
       </c>
       <c r="AC54" s="10" t="s">
-        <v>1338</v>
+        <v>1342</v>
       </c>
       <c r="AD54" s="10" t="s">
-        <v>1339</v>
+        <v>1343</v>
       </c>
       <c r="AE54" s="10" t="s">
         <v>555</v>
@@ -32144,46 +32193,46 @@
         <v>780</v>
       </c>
       <c r="AH54" s="10" t="s">
-        <v>1340</v>
+        <v>1344</v>
       </c>
       <c r="AI54" s="10" t="s">
-        <v>1341</v>
+        <v>1345</v>
       </c>
       <c r="AJ54" s="10" t="s">
-        <v>1342</v>
+        <v>1346</v>
       </c>
       <c r="AK54" s="10" t="s">
         <v>787</v>
       </c>
       <c r="AL54" s="10" t="s">
-        <v>1343</v>
+        <v>1347</v>
       </c>
       <c r="AM54" s="10" t="s">
         <v>770</v>
       </c>
       <c r="AN54" s="10" t="s">
-        <v>1344</v>
+        <v>1348</v>
       </c>
       <c r="AO54" s="10" t="s">
-        <v>1345</v>
+        <v>1349</v>
       </c>
       <c r="AP54" s="10" t="s">
-        <v>1346</v>
+        <v>1350</v>
       </c>
       <c r="AQ54" s="10" t="s">
-        <v>1347</v>
+        <v>1351</v>
       </c>
       <c r="AR54" s="10" t="s">
-        <v>1348</v>
+        <v>1352</v>
       </c>
       <c r="AS54" s="10" t="s">
-        <v>1349</v>
+        <v>1353</v>
       </c>
       <c r="AT54" s="10" t="s">
-        <v>1350</v>
+        <v>1354</v>
       </c>
       <c r="AU54" s="10" t="s">
-        <v>1351</v>
+        <v>1355</v>
       </c>
       <c r="AV54" s="25"/>
       <c r="AW54" s="25"/>
@@ -32361,7 +32410,7 @@
     </row>
     <row r="55">
       <c r="A55" s="10" t="s">
-        <v>1352</v>
+        <v>1356</v>
       </c>
       <c r="B55" s="10" t="s">
         <v>301</v>
@@ -32375,64 +32424,64 @@
         <v>448</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>1353</v>
+        <v>1357</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>1354</v>
+        <v>1358</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>1355</v>
+        <v>1359</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>1356</v>
+        <v>1360</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>1357</v>
+        <v>1361</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>1358</v>
+        <v>1362</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>1359</v>
+        <v>1363</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>1360</v>
+        <v>1364</v>
       </c>
       <c r="J56" s="10" t="s">
-        <v>1095</v>
+        <v>1099</v>
       </c>
       <c r="K56" s="10" t="s">
-        <v>1361</v>
+        <v>1365</v>
       </c>
       <c r="L56" s="10" t="s">
-        <v>1362</v>
+        <v>1366</v>
       </c>
       <c r="M56" s="10" t="s">
-        <v>1363</v>
+        <v>1367</v>
       </c>
       <c r="N56" s="10" t="s">
-        <v>1364</v>
+        <v>1368</v>
       </c>
       <c r="O56" s="10" t="s">
-        <v>1365</v>
+        <v>1369</v>
       </c>
       <c r="P56" s="10" t="s">
-        <v>1366</v>
+        <v>1370</v>
       </c>
       <c r="Q56" s="10" t="s">
-        <v>1367</v>
+        <v>1371</v>
       </c>
       <c r="R56" s="10" t="s">
-        <v>1368</v>
+        <v>1372</v>
       </c>
       <c r="S56" s="10" t="s">
-        <v>1369</v>
+        <v>1373</v>
       </c>
       <c r="T56" s="10" t="s">
         <v>642</v>
       </c>
       <c r="U56" s="10" t="s">
-        <v>1370</v>
+        <v>1374</v>
       </c>
       <c r="V56" s="25"/>
       <c r="W56" s="25"/>
@@ -32648,7 +32697,7 @@
         <v>754</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>1371</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="58">
@@ -32656,28 +32705,28 @@
         <v>476</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>1372</v>
+        <v>1376</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>1159</v>
+        <v>1163</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>1337</v>
+        <v>1341</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>1373</v>
+        <v>1377</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>1374</v>
+        <v>1378</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>1375</v>
+        <v>1379</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>1376</v>
+        <v>1380</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>1341</v>
+        <v>1345</v>
       </c>
       <c r="J58" s="10" t="s">
         <v>391</v>
@@ -32689,7 +32738,7 @@
         <v>652</v>
       </c>
       <c r="M58" s="10" t="s">
-        <v>1377</v>
+        <v>1381</v>
       </c>
       <c r="N58" s="25"/>
       <c r="O58" s="25"/>
@@ -33134,10 +33183,10 @@
         <v>496</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>1220</v>
+        <v>1224</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>1378</v>
+        <v>1382</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>217</v>
@@ -33149,7 +33198,7 @@
         <v>242</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>1379</v>
+        <v>1383</v>
       </c>
       <c r="H60" s="25"/>
       <c r="I60" s="25"/>
@@ -33370,7 +33419,7 @@
         <v>501</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>1380</v>
+        <v>1384</v>
       </c>
       <c r="C61" s="10" t="s">
         <v>483</v>
@@ -33381,34 +33430,34 @@
         <v>502</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>1381</v>
+        <v>1385</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>1382</v>
+        <v>1386</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>1383</v>
+        <v>1387</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>1384</v>
+        <v>1388</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>1385</v>
+        <v>1389</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>1386</v>
+        <v>1390</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>1387</v>
+        <v>1391</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>1388</v>
+        <v>1392</v>
       </c>
       <c r="J62" s="10" t="s">
         <v>333</v>
       </c>
       <c r="K62" s="10" t="s">
-        <v>1389</v>
+        <v>1393</v>
       </c>
       <c r="L62" s="10" t="s">
         <v>87</v>
@@ -33420,13 +33469,13 @@
         <v>742</v>
       </c>
       <c r="O62" s="10" t="s">
-        <v>1390</v>
+        <v>1394</v>
       </c>
       <c r="P62" s="10" t="s">
         <v>668</v>
       </c>
       <c r="Q62" s="10" t="s">
-        <v>1391</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="63">
@@ -33434,247 +33483,247 @@
         <v>518</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>1392</v>
+        <v>1396</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>1393</v>
+        <v>1397</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>1394</v>
+        <v>1398</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>1395</v>
+        <v>1399</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>1396</v>
+        <v>1400</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>1397</v>
+        <v>1401</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>1398</v>
+        <v>1402</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>1399</v>
+        <v>1403</v>
       </c>
       <c r="J63" s="10" t="s">
-        <v>1150</v>
+        <v>1154</v>
       </c>
       <c r="K63" s="10" t="s">
-        <v>1400</v>
+        <v>1404</v>
       </c>
       <c r="L63" s="10" t="s">
-        <v>1401</v>
+        <v>1405</v>
       </c>
       <c r="M63" s="10" t="s">
-        <v>1402</v>
+        <v>1406</v>
       </c>
       <c r="N63" s="10" t="s">
-        <v>1403</v>
+        <v>1407</v>
       </c>
       <c r="O63" s="10" t="s">
-        <v>1404</v>
+        <v>1408</v>
       </c>
       <c r="P63" s="10" t="s">
-        <v>1405</v>
+        <v>1409</v>
       </c>
       <c r="Q63" s="10" t="s">
-        <v>1406</v>
+        <v>1410</v>
       </c>
       <c r="R63" s="10" t="s">
-        <v>1407</v>
+        <v>1411</v>
       </c>
       <c r="S63" s="10" t="s">
-        <v>1408</v>
+        <v>1412</v>
       </c>
       <c r="T63" s="10" t="s">
-        <v>1409</v>
+        <v>1413</v>
       </c>
       <c r="U63" s="10" t="s">
-        <v>1313</v>
+        <v>1317</v>
       </c>
       <c r="V63" s="10" t="s">
-        <v>1410</v>
+        <v>1414</v>
       </c>
       <c r="W63" s="10" t="s">
-        <v>1411</v>
+        <v>1415</v>
       </c>
       <c r="X63" s="10" t="s">
-        <v>1412</v>
+        <v>1416</v>
       </c>
       <c r="Y63" s="10" t="s">
-        <v>1413</v>
+        <v>1417</v>
       </c>
       <c r="Z63" s="10" t="s">
-        <v>1414</v>
+        <v>1418</v>
       </c>
       <c r="AA63" s="10" t="s">
-        <v>1415</v>
+        <v>1419</v>
       </c>
       <c r="AB63" s="10" t="s">
-        <v>1416</v>
+        <v>1420</v>
       </c>
       <c r="AC63" s="10" t="s">
-        <v>1417</v>
+        <v>1421</v>
       </c>
       <c r="AD63" s="10" t="s">
-        <v>1418</v>
+        <v>1422</v>
       </c>
       <c r="AE63" s="10" t="s">
-        <v>1419</v>
+        <v>1423</v>
       </c>
       <c r="AF63" s="10" t="s">
-        <v>1420</v>
+        <v>1424</v>
       </c>
       <c r="AG63" s="10" t="s">
-        <v>1421</v>
+        <v>1425</v>
       </c>
       <c r="AH63" s="10" t="s">
-        <v>1422</v>
+        <v>1426</v>
       </c>
       <c r="AI63" s="10" t="s">
-        <v>1423</v>
+        <v>1427</v>
       </c>
       <c r="AJ63" s="10" t="s">
-        <v>1424</v>
+        <v>1428</v>
       </c>
       <c r="AK63" s="10" t="s">
-        <v>1425</v>
+        <v>1429</v>
       </c>
       <c r="AL63" s="10" t="s">
-        <v>1426</v>
+        <v>1430</v>
       </c>
       <c r="AM63" s="10" t="s">
-        <v>1427</v>
+        <v>1431</v>
       </c>
       <c r="AN63" s="10" t="s">
-        <v>1428</v>
+        <v>1432</v>
       </c>
       <c r="AO63" s="10" t="s">
-        <v>1429</v>
+        <v>1433</v>
       </c>
       <c r="AP63" s="10" t="s">
-        <v>1430</v>
+        <v>1434</v>
       </c>
       <c r="AQ63" s="10" t="s">
-        <v>1431</v>
+        <v>1435</v>
       </c>
       <c r="AR63" s="10" t="s">
-        <v>1432</v>
+        <v>1436</v>
       </c>
       <c r="AS63" s="10" t="s">
-        <v>1433</v>
+        <v>1437</v>
       </c>
       <c r="AT63" s="10" t="s">
-        <v>1434</v>
+        <v>1438</v>
       </c>
       <c r="AU63" s="10" t="s">
-        <v>1435</v>
+        <v>1439</v>
       </c>
       <c r="AV63" s="10" t="s">
-        <v>1436</v>
+        <v>1440</v>
       </c>
       <c r="AW63" s="10" t="s">
-        <v>1437</v>
+        <v>1441</v>
       </c>
       <c r="AX63" s="10" t="s">
-        <v>1438</v>
+        <v>1442</v>
       </c>
       <c r="AY63" s="10" t="s">
-        <v>1439</v>
+        <v>1443</v>
       </c>
       <c r="AZ63" s="10" t="s">
-        <v>1440</v>
+        <v>1444</v>
       </c>
       <c r="BA63" s="10" t="s">
-        <v>1441</v>
+        <v>1445</v>
       </c>
       <c r="BB63" s="10" t="s">
-        <v>1442</v>
+        <v>1446</v>
       </c>
       <c r="BC63" s="10" t="s">
-        <v>1443</v>
+        <v>1447</v>
       </c>
       <c r="BD63" s="10" t="s">
-        <v>1444</v>
+        <v>1448</v>
       </c>
       <c r="BE63" s="10" t="s">
-        <v>1445</v>
+        <v>1449</v>
       </c>
       <c r="BF63" s="10" t="s">
-        <v>1446</v>
+        <v>1450</v>
       </c>
       <c r="BG63" s="10" t="s">
-        <v>1447</v>
+        <v>1451</v>
       </c>
       <c r="BH63" s="10" t="s">
-        <v>1448</v>
+        <v>1452</v>
       </c>
       <c r="BI63" s="10" t="s">
-        <v>1449</v>
+        <v>1453</v>
       </c>
       <c r="BJ63" s="10" t="s">
+        <v>881</v>
+      </c>
+      <c r="BK63" s="10" t="s">
+        <v>887</v>
+      </c>
+      <c r="BL63" s="10" t="s">
+        <v>1454</v>
+      </c>
+      <c r="BM63" s="10" t="s">
+        <v>1455</v>
+      </c>
+      <c r="BN63" s="10" t="s">
+        <v>1456</v>
+      </c>
+      <c r="BO63" s="10" t="s">
+        <v>883</v>
+      </c>
+      <c r="BP63" s="10" t="s">
+        <v>1457</v>
+      </c>
+      <c r="BQ63" s="10" t="s">
+        <v>1458</v>
+      </c>
+      <c r="BR63" s="10" t="s">
+        <v>1459</v>
+      </c>
+      <c r="BS63" s="10" t="s">
+        <v>1460</v>
+      </c>
+      <c r="BT63" s="10" t="s">
+        <v>1461</v>
+      </c>
+      <c r="BU63" s="10" t="s">
+        <v>1462</v>
+      </c>
+      <c r="BV63" s="10" t="s">
+        <v>1463</v>
+      </c>
+      <c r="BW63" s="10" t="s">
+        <v>1464</v>
+      </c>
+      <c r="BX63" s="10" t="s">
+        <v>884</v>
+      </c>
+      <c r="BY63" s="10" t="s">
+        <v>886</v>
+      </c>
+      <c r="BZ63" s="10" t="s">
+        <v>878</v>
+      </c>
+      <c r="CA63" s="10" t="s">
         <v>877</v>
       </c>
-      <c r="BK63" s="10" t="s">
-        <v>883</v>
-      </c>
-      <c r="BL63" s="10" t="s">
-        <v>1450</v>
-      </c>
-      <c r="BM63" s="10" t="s">
-        <v>1451</v>
-      </c>
-      <c r="BN63" s="10" t="s">
-        <v>1452</v>
-      </c>
-      <c r="BO63" s="10" t="s">
-        <v>879</v>
-      </c>
-      <c r="BP63" s="10" t="s">
-        <v>1453</v>
-      </c>
-      <c r="BQ63" s="10" t="s">
-        <v>1454</v>
-      </c>
-      <c r="BR63" s="10" t="s">
-        <v>1455</v>
-      </c>
-      <c r="BS63" s="10" t="s">
-        <v>1456</v>
-      </c>
-      <c r="BT63" s="10" t="s">
-        <v>1457</v>
-      </c>
-      <c r="BU63" s="10" t="s">
-        <v>1458</v>
-      </c>
-      <c r="BV63" s="10" t="s">
-        <v>1459</v>
-      </c>
-      <c r="BW63" s="10" t="s">
-        <v>1460</v>
-      </c>
-      <c r="BX63" s="10" t="s">
-        <v>880</v>
-      </c>
-      <c r="BY63" s="10" t="s">
-        <v>882</v>
-      </c>
-      <c r="BZ63" s="10" t="s">
-        <v>874</v>
-      </c>
-      <c r="CA63" s="10" t="s">
-        <v>873</v>
-      </c>
       <c r="CB63" s="10" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="CC63" s="10" t="s">
-        <v>1238</v>
+        <v>1242</v>
       </c>
       <c r="CD63" s="10" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="CE63" s="10" t="s">
         <v>549</v>
@@ -33683,88 +33732,88 @@
         <v>618</v>
       </c>
       <c r="CG63" s="10" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="CH63" s="10" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
       <c r="CI63" s="10" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="CJ63" s="10" t="s">
         <v>749</v>
       </c>
       <c r="CK63" s="10" t="s">
-        <v>1461</v>
+        <v>1465</v>
       </c>
       <c r="CL63" s="10" t="s">
-        <v>1462</v>
+        <v>1466</v>
       </c>
       <c r="CM63" s="10" t="s">
-        <v>1463</v>
+        <v>1467</v>
       </c>
       <c r="CN63" s="10" t="s">
-        <v>1464</v>
+        <v>1468</v>
       </c>
       <c r="CO63" s="10" t="s">
-        <v>1465</v>
+        <v>1469</v>
       </c>
       <c r="CP63" s="10" t="s">
-        <v>1466</v>
+        <v>1470</v>
       </c>
       <c r="CQ63" s="10" t="s">
-        <v>1467</v>
+        <v>1471</v>
       </c>
       <c r="CR63" s="10" t="s">
-        <v>1468</v>
+        <v>1472</v>
       </c>
       <c r="CS63" s="10" t="s">
-        <v>1469</v>
+        <v>1473</v>
       </c>
       <c r="CT63" s="10" t="s">
-        <v>1470</v>
+        <v>1474</v>
       </c>
       <c r="CU63" s="10" t="s">
-        <v>1471</v>
+        <v>1475</v>
       </c>
       <c r="CV63" s="10" t="s">
-        <v>1472</v>
+        <v>1476</v>
       </c>
       <c r="CW63" s="10" t="s">
-        <v>1473</v>
+        <v>1477</v>
       </c>
       <c r="CX63" s="10" t="s">
-        <v>1474</v>
+        <v>1478</v>
       </c>
       <c r="CY63" s="10" t="s">
-        <v>1475</v>
+        <v>1479</v>
       </c>
       <c r="CZ63" s="10" t="s">
-        <v>1476</v>
+        <v>1480</v>
       </c>
       <c r="DA63" s="10" t="s">
-        <v>1477</v>
+        <v>1481</v>
       </c>
       <c r="DB63" s="10" t="s">
-        <v>1478</v>
+        <v>1482</v>
       </c>
       <c r="DC63" s="10" t="s">
-        <v>1479</v>
+        <v>1483</v>
       </c>
       <c r="DD63" s="10" t="s">
-        <v>1480</v>
+        <v>1484</v>
       </c>
       <c r="DE63" s="10" t="s">
         <v>685</v>
       </c>
       <c r="DF63" s="10" t="s">
-        <v>1481</v>
+        <v>1485</v>
       </c>
       <c r="DG63" s="10" t="s">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="DH63" s="10" t="s">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="DI63" s="25"/>
       <c r="DJ63" s="25"/>
@@ -33877,52 +33926,52 @@
     </row>
     <row r="64">
       <c r="A64" s="10" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>1485</v>
+        <v>1489</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>1486</v>
+        <v>1490</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>142</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>1487</v>
+        <v>1491</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>1488</v>
+        <v>1492</v>
       </c>
       <c r="G64" s="10" t="s">
         <v>475</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>1489</v>
+        <v>1493</v>
       </c>
       <c r="I64" s="10" t="s">
-        <v>1490</v>
+        <v>1494</v>
       </c>
       <c r="J64" s="10" t="s">
         <v>313</v>
       </c>
       <c r="K64" s="10" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="L64" s="10" t="s">
-        <v>1492</v>
+        <v>1496</v>
       </c>
       <c r="M64" s="10" t="s">
-        <v>1493</v>
+        <v>1497</v>
       </c>
       <c r="N64" s="10" t="s">
         <v>184</v>
       </c>
       <c r="O64" s="10" t="s">
-        <v>1339</v>
+        <v>1343</v>
       </c>
       <c r="P64" s="10" t="s">
-        <v>1337</v>
+        <v>1341</v>
       </c>
       <c r="Q64" s="10" t="s">
         <v>148</v>
@@ -34145,31 +34194,31 @@
         <v>680</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>1494</v>
+        <v>1498</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>464</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>1495</v>
+        <v>1499</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>1496</v>
+        <v>1500</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>1497</v>
+        <v>1501</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>1498</v>
+        <v>1502</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>1499</v>
+        <v>1503</v>
       </c>
       <c r="J65" s="10" t="s">
-        <v>1500</v>
+        <v>1504</v>
       </c>
       <c r="K65" s="10" t="s">
-        <v>1501</v>
+        <v>1505</v>
       </c>
       <c r="L65" s="10" t="s">
         <v>758</v>
@@ -34388,13 +34437,13 @@
         <v>532</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>1502</v>
+        <v>1506</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>1503</v>
+        <v>1507</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>1504</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="67">
@@ -34402,22 +34451,22 @@
         <v>535</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>1505</v>
+        <v>1509</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>1506</v>
+        <v>1510</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>1507</v>
+        <v>1511</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>1508</v>
+        <v>1512</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>1509</v>
+        <v>1513</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>1510</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="68">
@@ -34425,13 +34474,13 @@
         <v>536</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>1511</v>
+        <v>1515</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>1512</v>
+        <v>1516</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>1513</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="69">
@@ -34439,70 +34488,70 @@
         <v>550</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>1322</v>
+        <v>1326</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>1327</v>
+        <v>1331</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>1514</v>
+        <v>1518</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>1515</v>
+        <v>1519</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>1328</v>
+        <v>1332</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>1516</v>
+        <v>1520</v>
       </c>
       <c r="H69" s="10" t="s">
+        <v>1333</v>
+      </c>
+      <c r="I69" s="10" t="s">
+        <v>1521</v>
+      </c>
+      <c r="J69" s="10" t="s">
         <v>1329</v>
       </c>
-      <c r="I69" s="10" t="s">
-        <v>1517</v>
-      </c>
-      <c r="J69" s="10" t="s">
-        <v>1325</v>
-      </c>
       <c r="K69" s="10" t="s">
-        <v>1333</v>
+        <v>1337</v>
       </c>
       <c r="L69" s="10" t="s">
-        <v>1332</v>
+        <v>1336</v>
       </c>
       <c r="M69" s="10" t="s">
-        <v>1330</v>
+        <v>1334</v>
       </c>
       <c r="N69" s="10" t="s">
-        <v>1518</v>
+        <v>1522</v>
       </c>
       <c r="O69" s="10" t="s">
-        <v>1519</v>
+        <v>1523</v>
       </c>
       <c r="P69" s="10" t="s">
-        <v>1520</v>
+        <v>1524</v>
       </c>
       <c r="Q69" s="10" t="s">
-        <v>1521</v>
+        <v>1525</v>
       </c>
       <c r="R69" s="10" t="s">
-        <v>1522</v>
+        <v>1526</v>
       </c>
       <c r="S69" s="10" t="s">
-        <v>1338</v>
+        <v>1342</v>
       </c>
       <c r="T69" s="10" t="s">
-        <v>1337</v>
+        <v>1341</v>
       </c>
       <c r="U69" s="10" t="s">
-        <v>1339</v>
+        <v>1343</v>
       </c>
       <c r="V69" s="10" t="s">
-        <v>1523</v>
+        <v>1527</v>
       </c>
       <c r="W69" s="10" t="s">
-        <v>1524</v>
+        <v>1528</v>
       </c>
       <c r="X69" s="10" t="s">
         <v>239</v>
@@ -34511,22 +34560,22 @@
         <v>345</v>
       </c>
       <c r="Z69" s="10" t="s">
-        <v>1525</v>
+        <v>1529</v>
       </c>
       <c r="AA69" s="10" t="s">
-        <v>1526</v>
+        <v>1530</v>
       </c>
       <c r="AB69" s="10" t="s">
-        <v>1334</v>
+        <v>1338</v>
       </c>
       <c r="AC69" s="10" t="s">
-        <v>1335</v>
+        <v>1339</v>
       </c>
       <c r="AD69" s="10" t="s">
-        <v>1527</v>
+        <v>1531</v>
       </c>
       <c r="AE69" s="10" t="s">
-        <v>1528</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="70">
@@ -34534,13 +34583,13 @@
         <v>557</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>1529</v>
+        <v>1533</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>1530</v>
+        <v>1534</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>1531</v>
+        <v>1535</v>
       </c>
       <c r="E70" s="10" t="s">
         <v>796</v>
@@ -34549,16 +34598,16 @@
         <v>728</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>1532</v>
+        <v>1536</v>
       </c>
       <c r="H70" s="10" t="s">
         <v>674</v>
       </c>
       <c r="I70" s="10" t="s">
-        <v>1533</v>
+        <v>1537</v>
       </c>
       <c r="J70" s="10" t="s">
-        <v>1534</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="71">
@@ -34566,16 +34615,16 @@
         <v>558</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>1535</v>
+        <v>1539</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>1536</v>
+        <v>1540</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>1537</v>
+        <v>1541</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>1538</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="72">
@@ -34583,22 +34632,22 @@
         <v>562</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>1539</v>
+        <v>1543</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>1540</v>
+        <v>1544</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>1541</v>
+        <v>1545</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>1542</v>
+        <v>1546</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>1543</v>
+        <v>1547</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>1544</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="73">
@@ -34606,19 +34655,19 @@
         <v>565</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>1545</v>
+        <v>1549</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>1547</v>
+        <v>1551</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>1548</v>
+        <v>1552</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>1549</v>
+        <v>1553</v>
       </c>
       <c r="G73" s="25"/>
       <c r="H73" s="25"/>
@@ -35093,7 +35142,7 @@
         <v>569</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>1550</v>
+        <v>1554</v>
       </c>
       <c r="C76" s="10" t="s">
         <v>611</v>
@@ -35102,22 +35151,22 @@
         <v>450</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>1551</v>
+        <v>1555</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>1552</v>
+        <v>1556</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>1553</v>
+        <v>1557</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>1554</v>
+        <v>1558</v>
       </c>
       <c r="I76" s="10" t="s">
-        <v>1555</v>
+        <v>1559</v>
       </c>
       <c r="J76" s="10" t="s">
-        <v>1556</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="77">
@@ -35363,7 +35412,7 @@
         <v>456</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>1557</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="79">
@@ -35371,7 +35420,7 @@
         <v>579</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="80">
@@ -35379,58 +35428,58 @@
         <v>580</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>1559</v>
+        <v>1563</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>1561</v>
+        <v>1565</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>1562</v>
+        <v>1566</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>1563</v>
+        <v>1567</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>1564</v>
+        <v>1568</v>
       </c>
       <c r="H80" s="10" t="s">
-        <v>1565</v>
+        <v>1569</v>
       </c>
       <c r="I80" s="10" t="s">
-        <v>1566</v>
+        <v>1570</v>
       </c>
       <c r="J80" s="10" t="s">
-        <v>1567</v>
+        <v>1571</v>
       </c>
       <c r="K80" s="10" t="s">
-        <v>1568</v>
+        <v>1572</v>
       </c>
       <c r="L80" s="10" t="s">
-        <v>1569</v>
+        <v>1573</v>
       </c>
       <c r="M80" s="10" t="s">
-        <v>1570</v>
+        <v>1574</v>
       </c>
       <c r="N80" s="10" t="s">
-        <v>1571</v>
+        <v>1575</v>
       </c>
       <c r="O80" s="10" t="s">
-        <v>1572</v>
+        <v>1576</v>
       </c>
       <c r="P80" s="10" t="s">
-        <v>1573</v>
+        <v>1577</v>
       </c>
       <c r="Q80" s="10" t="s">
-        <v>1574</v>
+        <v>1578</v>
       </c>
       <c r="R80" s="10" t="s">
-        <v>1575</v>
+        <v>1579</v>
       </c>
       <c r="S80" s="10" t="s">
-        <v>1576</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="81">
@@ -35438,31 +35487,31 @@
         <v>583</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>1577</v>
+        <v>1581</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>1578</v>
+        <v>1582</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>1579</v>
+        <v>1583</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>1580</v>
+        <v>1584</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>1581</v>
+        <v>1585</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>1582</v>
+        <v>1586</v>
       </c>
       <c r="H81" s="10" t="s">
-        <v>1583</v>
+        <v>1587</v>
       </c>
       <c r="I81" s="10" t="s">
-        <v>1584</v>
+        <v>1588</v>
       </c>
       <c r="J81" s="10" t="s">
-        <v>1585</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="82">
@@ -35485,7 +35534,7 @@
         <v>483</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>1586</v>
+        <v>1590</v>
       </c>
       <c r="H82" s="10" t="s">
         <v>92</v>
@@ -35500,10 +35549,10 @@
         <v>751</v>
       </c>
       <c r="L82" s="10" t="s">
-        <v>1587</v>
+        <v>1591</v>
       </c>
       <c r="M82" s="10" t="s">
-        <v>1091</v>
+        <v>1095</v>
       </c>
       <c r="N82" s="10" t="s">
         <v>377</v>
@@ -35521,19 +35570,19 @@
         <v>125</v>
       </c>
       <c r="S82" s="10" t="s">
-        <v>1588</v>
+        <v>1592</v>
       </c>
       <c r="T82" s="10" t="s">
         <v>670</v>
       </c>
       <c r="U82" s="10" t="s">
-        <v>1128</v>
+        <v>1132</v>
       </c>
       <c r="V82" s="10" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="W82" s="10" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="X82" s="10" t="s">
         <v>243</v>
@@ -35545,7 +35594,7 @@
         <v>759</v>
       </c>
       <c r="AA82" s="10" t="s">
-        <v>1088</v>
+        <v>1092</v>
       </c>
       <c r="AB82" s="10" t="s">
         <v>821</v>
@@ -35557,19 +35606,19 @@
         <v>175</v>
       </c>
       <c r="AE82" s="10" t="s">
-        <v>1092</v>
+        <v>1096</v>
       </c>
       <c r="AF82" s="10" t="s">
         <v>288</v>
       </c>
       <c r="AG82" s="10" t="s">
-        <v>1083</v>
+        <v>1087</v>
       </c>
       <c r="AH82" s="10" t="s">
         <v>279</v>
       </c>
       <c r="AI82" s="10" t="s">
-        <v>1589</v>
+        <v>1593</v>
       </c>
       <c r="AJ82" s="10" t="s">
         <v>550</v>
@@ -35578,28 +35627,28 @@
         <v>600</v>
       </c>
       <c r="AL82" s="10" t="s">
-        <v>1590</v>
+        <v>1594</v>
       </c>
       <c r="AM82" s="10" t="s">
-        <v>1591</v>
+        <v>1595</v>
       </c>
       <c r="AN82" s="10" t="s">
         <v>242</v>
       </c>
       <c r="AO82" s="10" t="s">
-        <v>1592</v>
+        <v>1596</v>
       </c>
       <c r="AP82" s="10" t="s">
-        <v>1086</v>
+        <v>1090</v>
       </c>
       <c r="AQ82" s="10" t="s">
         <v>639</v>
       </c>
       <c r="AR82" s="10" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="AS82" s="10" t="s">
-        <v>1147</v>
+        <v>1151</v>
       </c>
       <c r="AT82" s="10" t="s">
         <v>210</v>
@@ -35611,7 +35660,7 @@
         <v>628</v>
       </c>
       <c r="AW82" s="10" t="s">
-        <v>1593</v>
+        <v>1597</v>
       </c>
       <c r="AX82" s="10" t="s">
         <v>440</v>
@@ -35805,85 +35854,85 @@
         <v>288</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>1594</v>
+        <v>1598</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>1595</v>
+        <v>1599</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>1596</v>
+        <v>1600</v>
       </c>
       <c r="H83" s="10" t="s">
-        <v>1087</v>
+        <v>1091</v>
       </c>
       <c r="I83" s="10" t="s">
-        <v>1597</v>
+        <v>1601</v>
       </c>
       <c r="J83" s="10" t="s">
-        <v>1091</v>
+        <v>1095</v>
       </c>
       <c r="K83" s="10" t="s">
-        <v>1598</v>
+        <v>1602</v>
       </c>
       <c r="L83" s="10" t="s">
-        <v>1599</v>
+        <v>1603</v>
       </c>
       <c r="M83" s="10" t="s">
-        <v>1600</v>
+        <v>1604</v>
       </c>
       <c r="N83" s="10" t="s">
-        <v>1092</v>
+        <v>1096</v>
       </c>
       <c r="O83" s="10" t="s">
-        <v>1086</v>
+        <v>1090</v>
       </c>
       <c r="P83" s="10" t="s">
-        <v>1601</v>
+        <v>1605</v>
       </c>
       <c r="Q83" s="10" t="s">
-        <v>1602</v>
+        <v>1606</v>
       </c>
       <c r="R83" s="10" t="s">
-        <v>1603</v>
+        <v>1607</v>
       </c>
       <c r="S83" s="10" t="s">
-        <v>1604</v>
+        <v>1608</v>
       </c>
       <c r="T83" s="10" t="s">
-        <v>1605</v>
+        <v>1609</v>
       </c>
       <c r="U83" s="10" t="s">
-        <v>1606</v>
+        <v>1610</v>
       </c>
       <c r="V83" s="10" t="s">
-        <v>1607</v>
+        <v>1611</v>
       </c>
       <c r="W83" s="10" t="s">
-        <v>1608</v>
+        <v>1612</v>
       </c>
       <c r="X83" s="10" t="s">
-        <v>1609</v>
+        <v>1613</v>
       </c>
       <c r="Y83" s="10" t="s">
-        <v>1610</v>
+        <v>1614</v>
       </c>
       <c r="Z83" s="10" t="s">
-        <v>1611</v>
+        <v>1615</v>
       </c>
       <c r="AA83" s="10" t="s">
-        <v>1612</v>
+        <v>1616</v>
       </c>
       <c r="AB83" s="10" t="s">
-        <v>1021</v>
+        <v>1025</v>
       </c>
       <c r="AC83" s="10" t="s">
-        <v>1292</v>
+        <v>1296</v>
       </c>
       <c r="AD83" s="10" t="s">
-        <v>1613</v>
+        <v>1617</v>
       </c>
       <c r="AE83" s="10" t="s">
-        <v>1614</v>
+        <v>1618</v>
       </c>
       <c r="AF83" s="10" t="s">
         <v>636</v>
@@ -36105,7 +36154,7 @@
         <v>606</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>1615</v>
+        <v>1619</v>
       </c>
       <c r="C85" s="10" t="s">
         <v>192</v>
@@ -36132,13 +36181,13 @@
         <v>483</v>
       </c>
       <c r="K85" s="10" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
       <c r="L85" s="10" t="s">
-        <v>1616</v>
+        <v>1620</v>
       </c>
       <c r="M85" s="10" t="s">
-        <v>1617</v>
+        <v>1621</v>
       </c>
       <c r="N85" s="10" t="s">
         <v>437</v>
@@ -36147,28 +36196,28 @@
         <v>301</v>
       </c>
       <c r="P85" s="10" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="Q85" s="10" t="s">
-        <v>1128</v>
+        <v>1132</v>
       </c>
       <c r="R85" s="10" t="s">
         <v>616</v>
       </c>
       <c r="S85" s="10" t="s">
-        <v>1618</v>
+        <v>1622</v>
       </c>
       <c r="T85" s="10" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="U85" s="10" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="V85" s="10" t="s">
-        <v>1619</v>
+        <v>1623</v>
       </c>
       <c r="W85" s="10" t="s">
-        <v>1620</v>
+        <v>1624</v>
       </c>
       <c r="X85" s="25"/>
       <c r="Y85" s="25"/>
@@ -36373,31 +36422,31 @@
         <v>613</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>1621</v>
+        <v>1625</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>1622</v>
+        <v>1626</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>1376</v>
+        <v>1380</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>1623</v>
+        <v>1627</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>1624</v>
+        <v>1628</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>1625</v>
+        <v>1629</v>
       </c>
       <c r="H86" s="10" t="s">
-        <v>1626</v>
+        <v>1630</v>
       </c>
       <c r="I86" s="10" t="s">
-        <v>1627</v>
+        <v>1631</v>
       </c>
       <c r="J86" s="10" t="s">
-        <v>1628</v>
+        <v>1632</v>
       </c>
       <c r="K86" s="25"/>
       <c r="L86" s="25"/>
@@ -36615,37 +36664,37 @@
         <v>624</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>1629</v>
+        <v>1633</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>1398</v>
+        <v>1402</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>1630</v>
+        <v>1634</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>1631</v>
+        <v>1635</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>1632</v>
+        <v>1636</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>1633</v>
+        <v>1637</v>
       </c>
       <c r="H87" s="10" t="s">
-        <v>1634</v>
+        <v>1638</v>
       </c>
       <c r="I87" s="10" t="s">
-        <v>1635</v>
+        <v>1639</v>
       </c>
       <c r="J87" s="10" t="s">
-        <v>1636</v>
+        <v>1640</v>
       </c>
       <c r="K87" s="10" t="s">
-        <v>1637</v>
+        <v>1641</v>
       </c>
       <c r="L87" s="10" t="s">
-        <v>1638</v>
+        <v>1642</v>
       </c>
       <c r="M87" s="25"/>
       <c r="N87" s="25"/>
@@ -36864,7 +36913,7 @@
         <v>182</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>1639</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="89">
@@ -36872,10 +36921,10 @@
         <v>629</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>1640</v>
+        <v>1644</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>1641</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="90">
@@ -36883,34 +36932,34 @@
         <v>632</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>1157</v>
+        <v>1161</v>
       </c>
       <c r="C90" s="10" t="s">
         <v>156</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>1158</v>
+        <v>1162</v>
       </c>
       <c r="E90" s="10" t="s">
         <v>599</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>1642</v>
+        <v>1646</v>
       </c>
       <c r="G90" s="10" t="s">
         <v>278</v>
       </c>
       <c r="H90" s="10" t="s">
-        <v>1643</v>
+        <v>1647</v>
       </c>
       <c r="I90" s="10" t="s">
-        <v>1644</v>
+        <v>1648</v>
       </c>
       <c r="J90" s="10" t="s">
-        <v>1319</v>
+        <v>1323</v>
       </c>
       <c r="K90" s="10" t="s">
-        <v>1645</v>
+        <v>1649</v>
       </c>
       <c r="L90" s="10" t="s">
         <v>798</v>
@@ -36919,7 +36968,7 @@
         <v>300</v>
       </c>
       <c r="N90" s="10" t="s">
-        <v>1336</v>
+        <v>1340</v>
       </c>
       <c r="O90" s="10" t="s">
         <v>555</v>
@@ -36928,118 +36977,118 @@
         <v>652</v>
       </c>
       <c r="Q90" s="10" t="s">
-        <v>1646</v>
+        <v>1650</v>
       </c>
       <c r="R90" s="10" t="s">
-        <v>1647</v>
+        <v>1651</v>
       </c>
       <c r="S90" s="10" t="s">
-        <v>1343</v>
+        <v>1347</v>
       </c>
       <c r="T90" s="10" t="s">
         <v>13</v>
       </c>
       <c r="U90" s="10" t="s">
-        <v>1648</v>
+        <v>1652</v>
       </c>
       <c r="V90" s="10" t="s">
-        <v>1374</v>
+        <v>1378</v>
       </c>
       <c r="W90" s="10" t="s">
-        <v>1341</v>
+        <v>1345</v>
       </c>
       <c r="X90" s="10" t="s">
-        <v>1329</v>
+        <v>1333</v>
       </c>
       <c r="Y90" s="10" t="s">
         <v>780</v>
       </c>
       <c r="Z90" s="10" t="s">
-        <v>1218</v>
+        <v>1222</v>
       </c>
       <c r="AA90" s="10" t="s">
         <v>810</v>
       </c>
       <c r="AB90" s="10" t="s">
-        <v>1351</v>
+        <v>1355</v>
       </c>
       <c r="AC90" s="10" t="s">
-        <v>1649</v>
+        <v>1653</v>
       </c>
       <c r="AD90" s="10" t="s">
-        <v>1324</v>
+        <v>1328</v>
       </c>
       <c r="AE90" s="10" t="s">
-        <v>1650</v>
+        <v>1654</v>
       </c>
       <c r="AF90" s="10" t="s">
+        <v>1330</v>
+      </c>
+      <c r="AG90" s="10" t="s">
         <v>1326</v>
       </c>
-      <c r="AG90" s="10" t="s">
-        <v>1322</v>
-      </c>
       <c r="AH90" s="10" t="s">
-        <v>1330</v>
+        <v>1334</v>
       </c>
       <c r="AI90" s="10" t="s">
-        <v>1335</v>
+        <v>1339</v>
       </c>
       <c r="AJ90" s="10" t="s">
-        <v>1527</v>
+        <v>1531</v>
       </c>
       <c r="AK90" s="10" t="s">
-        <v>1334</v>
+        <v>1338</v>
       </c>
       <c r="AL90" s="10" t="s">
-        <v>1337</v>
+        <v>1341</v>
       </c>
       <c r="AM90" s="10" t="s">
         <v>239</v>
       </c>
       <c r="AN90" s="10" t="s">
-        <v>1339</v>
+        <v>1343</v>
       </c>
       <c r="AO90" s="10" t="s">
         <v>544</v>
       </c>
       <c r="AP90" s="10" t="s">
-        <v>1651</v>
+        <v>1655</v>
       </c>
       <c r="AQ90" s="10" t="s">
-        <v>1652</v>
+        <v>1656</v>
       </c>
       <c r="AR90" s="10" t="s">
-        <v>1653</v>
+        <v>1657</v>
       </c>
       <c r="AS90" s="10" t="s">
-        <v>1654</v>
+        <v>1658</v>
       </c>
       <c r="AT90" s="10" t="s">
-        <v>1655</v>
+        <v>1659</v>
       </c>
       <c r="AU90" s="10" t="s">
-        <v>1656</v>
+        <v>1660</v>
       </c>
       <c r="AV90" s="10" t="s">
-        <v>1657</v>
+        <v>1661</v>
       </c>
       <c r="AW90" s="10" t="s">
-        <v>1658</v>
+        <v>1662</v>
       </c>
       <c r="AX90" s="10" t="s">
-        <v>1659</v>
+        <v>1663</v>
       </c>
       <c r="AY90" s="10" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="AZ90" s="10" t="s">
-        <v>1660</v>
+        <v>1664</v>
       </c>
       <c r="BA90" s="10" t="s">
-        <v>1661</v>
+        <v>1665</v>
       </c>
       <c r="BB90" s="10" t="s">
-        <v>1662</v>
+        <v>1666</v>
       </c>
       <c r="BC90" s="25"/>
       <c r="BD90" s="25"/>
@@ -37213,31 +37262,31 @@
         <v>645</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>1663</v>
+        <v>1667</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>1252</v>
+        <v>1256</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>1664</v>
+        <v>1668</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>1665</v>
+        <v>1669</v>
       </c>
       <c r="G91" s="10" t="s">
         <v>235</v>
       </c>
       <c r="H91" s="10" t="s">
-        <v>1666</v>
+        <v>1670</v>
       </c>
       <c r="I91" s="10" t="s">
-        <v>1667</v>
+        <v>1671</v>
       </c>
       <c r="J91" s="10" t="s">
-        <v>1668</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="92">
@@ -37245,202 +37294,202 @@
         <v>647</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>1669</v>
+        <v>1673</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>1406</v>
+        <v>1410</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>1670</v>
+        <v>1674</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>1671</v>
+        <v>1675</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>1672</v>
+        <v>1676</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>1673</v>
+        <v>1677</v>
       </c>
       <c r="H92" s="10" t="s">
-        <v>1674</v>
+        <v>1678</v>
       </c>
       <c r="I92" s="10" t="s">
-        <v>1675</v>
+        <v>1679</v>
       </c>
       <c r="J92" s="10" t="s">
-        <v>1676</v>
+        <v>1680</v>
       </c>
       <c r="K92" s="10" t="s">
-        <v>1677</v>
+        <v>1681</v>
       </c>
       <c r="L92" s="10" t="s">
-        <v>1678</v>
+        <v>1682</v>
       </c>
       <c r="M92" s="10" t="s">
-        <v>1410</v>
+        <v>1414</v>
       </c>
       <c r="N92" s="10" t="s">
-        <v>1679</v>
+        <v>1683</v>
       </c>
       <c r="O92" s="10" t="s">
-        <v>1417</v>
+        <v>1421</v>
       </c>
       <c r="P92" s="10" t="s">
         <v>319</v>
       </c>
       <c r="Q92" s="10" t="s">
-        <v>1680</v>
+        <v>1684</v>
       </c>
       <c r="R92" s="10" t="s">
-        <v>1681</v>
+        <v>1685</v>
       </c>
       <c r="S92" s="10" t="s">
-        <v>1682</v>
+        <v>1686</v>
       </c>
       <c r="T92" s="10" t="s">
-        <v>1683</v>
+        <v>1687</v>
       </c>
       <c r="U92" s="10" t="s">
-        <v>1684</v>
+        <v>1688</v>
       </c>
       <c r="V92" s="10" t="s">
-        <v>1685</v>
+        <v>1689</v>
       </c>
       <c r="W92" s="10" t="s">
-        <v>1686</v>
+        <v>1690</v>
       </c>
       <c r="X92" s="10" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
       <c r="Y92" s="10" t="s">
-        <v>1687</v>
+        <v>1691</v>
       </c>
       <c r="Z92" s="10" t="s">
-        <v>1688</v>
+        <v>1692</v>
       </c>
       <c r="AA92" s="10" t="s">
-        <v>1689</v>
+        <v>1693</v>
       </c>
       <c r="AB92" s="10" t="s">
         <v>182</v>
       </c>
       <c r="AC92" s="10" t="s">
-        <v>1690</v>
+        <v>1694</v>
       </c>
       <c r="AD92" s="10" t="s">
-        <v>1691</v>
+        <v>1695</v>
       </c>
       <c r="AE92" s="10" t="s">
-        <v>1692</v>
+        <v>1696</v>
       </c>
       <c r="AF92" s="10" t="s">
-        <v>1693</v>
+        <v>1697</v>
       </c>
       <c r="AG92" s="10" t="s">
-        <v>1694</v>
+        <v>1698</v>
       </c>
       <c r="AH92" s="10" t="s">
         <v>79</v>
       </c>
       <c r="AI92" s="10" t="s">
-        <v>1695</v>
+        <v>1699</v>
       </c>
       <c r="AJ92" s="10" t="s">
-        <v>1696</v>
+        <v>1700</v>
       </c>
       <c r="AK92" s="10" t="s">
-        <v>1697</v>
+        <v>1701</v>
       </c>
       <c r="AL92" s="10" t="s">
-        <v>1698</v>
+        <v>1702</v>
       </c>
       <c r="AM92" s="10" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="AN92" s="10" t="s">
-        <v>1700</v>
+        <v>1704</v>
       </c>
       <c r="AO92" s="10" t="s">
-        <v>1701</v>
+        <v>1705</v>
       </c>
       <c r="AP92" s="10" t="s">
         <v>483</v>
       </c>
       <c r="AQ92" s="10" t="s">
-        <v>1702</v>
+        <v>1706</v>
       </c>
       <c r="AR92" s="10" t="s">
-        <v>1703</v>
+        <v>1707</v>
       </c>
       <c r="AS92" s="10" t="s">
-        <v>1704</v>
+        <v>1708</v>
       </c>
       <c r="AT92" s="10" t="s">
-        <v>1705</v>
+        <v>1709</v>
       </c>
       <c r="AU92" s="10" t="s">
-        <v>1706</v>
+        <v>1710</v>
       </c>
       <c r="AV92" s="10" t="s">
-        <v>1707</v>
+        <v>1711</v>
       </c>
       <c r="AW92" s="10" t="s">
-        <v>1708</v>
+        <v>1712</v>
       </c>
       <c r="AX92" s="10" t="s">
-        <v>1709</v>
+        <v>1713</v>
       </c>
       <c r="AY92" s="10" t="s">
-        <v>1413</v>
+        <v>1417</v>
       </c>
       <c r="AZ92" s="10" t="s">
-        <v>1414</v>
+        <v>1418</v>
       </c>
       <c r="BA92" s="10" t="s">
-        <v>1415</v>
+        <v>1419</v>
       </c>
       <c r="BB92" s="10" t="s">
-        <v>1416</v>
+        <v>1420</v>
       </c>
       <c r="BC92" s="10" t="s">
-        <v>1710</v>
+        <v>1714</v>
       </c>
       <c r="BD92" s="10" t="s">
-        <v>1711</v>
+        <v>1715</v>
       </c>
       <c r="BE92" s="10" t="s">
-        <v>1712</v>
+        <v>1716</v>
       </c>
       <c r="BF92" s="10" t="s">
-        <v>1713</v>
+        <v>1717</v>
       </c>
       <c r="BG92" s="10" t="s">
-        <v>1714</v>
+        <v>1718</v>
       </c>
       <c r="BH92" s="10" t="s">
-        <v>1715</v>
+        <v>1719</v>
       </c>
       <c r="BI92" s="10" t="s">
-        <v>1716</v>
+        <v>1720</v>
       </c>
       <c r="BJ92" s="10" t="s">
-        <v>1717</v>
+        <v>1721</v>
       </c>
       <c r="BK92" s="10" t="s">
-        <v>1718</v>
+        <v>1722</v>
       </c>
       <c r="BL92" s="10" t="s">
-        <v>1719</v>
+        <v>1723</v>
       </c>
       <c r="BM92" s="10" t="s">
-        <v>1720</v>
+        <v>1724</v>
       </c>
       <c r="BN92" s="10" t="s">
         <v>183</v>
       </c>
       <c r="BO92" s="10" t="s">
-        <v>1721</v>
+        <v>1725</v>
       </c>
       <c r="BP92" s="25"/>
       <c r="BQ92" s="25"/>
@@ -37601,25 +37650,25 @@
         <v>657</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>1286</v>
+        <v>1290</v>
       </c>
       <c r="C93" s="10" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D93" s="10" t="s">
         <v>1291</v>
       </c>
-      <c r="D93" s="10" t="s">
-        <v>1287</v>
-      </c>
       <c r="E93" s="10" t="s">
-        <v>1220</v>
+        <v>1224</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>1284</v>
+        <v>1288</v>
       </c>
       <c r="G93" s="10" t="s">
         <v>620</v>
       </c>
       <c r="H93" s="10" t="s">
-        <v>1722</v>
+        <v>1726</v>
       </c>
       <c r="I93" s="25"/>
       <c r="J93" s="25"/>
@@ -37839,25 +37888,25 @@
         <v>659</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>1723</v>
+        <v>1727</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>1724</v>
+        <v>1728</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>1725</v>
+        <v>1729</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>1726</v>
+        <v>1730</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>1727</v>
+        <v>1731</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>1728</v>
+        <v>1732</v>
       </c>
       <c r="H94" s="10" t="s">
-        <v>1729</v>
+        <v>1733</v>
       </c>
       <c r="I94" s="10" t="s">
         <v>483</v>
@@ -37869,31 +37918,31 @@
         <v>175</v>
       </c>
       <c r="L94" s="10" t="s">
-        <v>1730</v>
+        <v>1734</v>
       </c>
       <c r="M94" s="10" t="s">
-        <v>1731</v>
+        <v>1735</v>
       </c>
       <c r="N94" s="10" t="s">
-        <v>1732</v>
+        <v>1736</v>
       </c>
       <c r="O94" s="10" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="P94" s="10" t="s">
-        <v>1092</v>
+        <v>1096</v>
       </c>
       <c r="Q94" s="10" t="s">
-        <v>1309</v>
+        <v>1313</v>
       </c>
       <c r="R94" s="10" t="s">
-        <v>1733</v>
+        <v>1737</v>
       </c>
       <c r="S94" s="10" t="s">
-        <v>1734</v>
+        <v>1738</v>
       </c>
       <c r="T94" s="10" t="s">
-        <v>1615</v>
+        <v>1619</v>
       </c>
       <c r="U94" s="10" t="s">
         <v>192</v>
@@ -37922,10 +37971,10 @@
         <v>679</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>1615</v>
+        <v>1619</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>1686</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="96">
@@ -37956,34 +38005,34 @@
         <v>690</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>1735</v>
+        <v>1739</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>1736</v>
+        <v>1740</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>1245</v>
+        <v>1249</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>1309</v>
+        <v>1313</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>1737</v>
+        <v>1741</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>1738</v>
+        <v>1742</v>
       </c>
       <c r="H97" s="10" t="s">
-        <v>1287</v>
+        <v>1291</v>
       </c>
       <c r="I97" s="10" t="s">
-        <v>1739</v>
+        <v>1743</v>
       </c>
       <c r="J97" s="10" t="s">
-        <v>1740</v>
+        <v>1744</v>
       </c>
       <c r="K97" s="10" t="s">
-        <v>1741</v>
+        <v>1745</v>
       </c>
       <c r="L97" s="25"/>
       <c r="M97" s="25"/>
@@ -38200,13 +38249,13 @@
         <v>692</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>1742</v>
+        <v>1746</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>1743</v>
+        <v>1747</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>1744</v>
+        <v>1748</v>
       </c>
       <c r="E98" s="25"/>
       <c r="F98" s="25"/>
@@ -38454,10 +38503,10 @@
         <v>815</v>
       </c>
       <c r="J99" s="10" t="s">
-        <v>1590</v>
+        <v>1594</v>
       </c>
       <c r="K99" s="10" t="s">
-        <v>1589</v>
+        <v>1593</v>
       </c>
       <c r="L99" s="25"/>
       <c r="M99" s="25"/>
@@ -38674,46 +38723,46 @@
         <v>711</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>1745</v>
+        <v>1749</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>1746</v>
+        <v>1750</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>1747</v>
+        <v>1751</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>1748</v>
+        <v>1752</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>1749</v>
+        <v>1753</v>
       </c>
       <c r="G100" s="10" t="s">
-        <v>1750</v>
+        <v>1754</v>
       </c>
       <c r="H100" s="10" t="s">
-        <v>1671</v>
+        <v>1675</v>
       </c>
       <c r="I100" s="10" t="s">
-        <v>1471</v>
+        <v>1475</v>
       </c>
       <c r="J100" s="10" t="s">
-        <v>1751</v>
+        <v>1755</v>
       </c>
       <c r="K100" s="10" t="s">
-        <v>1752</v>
+        <v>1756</v>
       </c>
       <c r="L100" s="10" t="s">
-        <v>1753</v>
+        <v>1757</v>
       </c>
       <c r="M100" s="10" t="s">
-        <v>1754</v>
+        <v>1758</v>
       </c>
       <c r="N100" s="10" t="s">
-        <v>1755</v>
+        <v>1759</v>
       </c>
       <c r="O100" s="10" t="s">
-        <v>1756</v>
+        <v>1760</v>
       </c>
       <c r="P100" s="25"/>
       <c r="Q100" s="25"/>
@@ -38948,70 +38997,70 @@
         <v>732</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>1757</v>
+        <v>1761</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>1758</v>
+        <v>1762</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>1759</v>
+        <v>1763</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>1760</v>
+        <v>1764</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>1761</v>
+        <v>1765</v>
       </c>
       <c r="G102" s="10" t="s">
         <v>66</v>
       </c>
       <c r="H102" s="10" t="s">
-        <v>1762</v>
+        <v>1766</v>
       </c>
       <c r="I102" s="10" t="s">
-        <v>1433</v>
+        <v>1437</v>
       </c>
       <c r="J102" s="10" t="s">
-        <v>1763</v>
+        <v>1767</v>
       </c>
       <c r="K102" s="10" t="s">
-        <v>1764</v>
+        <v>1768</v>
       </c>
       <c r="L102" s="10" t="s">
-        <v>1765</v>
+        <v>1769</v>
       </c>
       <c r="M102" s="10" t="s">
-        <v>1124</v>
+        <v>1128</v>
       </c>
       <c r="N102" s="10" t="s">
-        <v>1766</v>
+        <v>1770</v>
       </c>
       <c r="O102" s="10" t="s">
-        <v>1767</v>
+        <v>1771</v>
       </c>
       <c r="P102" s="10" t="s">
-        <v>1768</v>
+        <v>1772</v>
       </c>
       <c r="Q102" s="10" t="s">
-        <v>1769</v>
+        <v>1773</v>
       </c>
       <c r="R102" s="10" t="s">
-        <v>1770</v>
+        <v>1774</v>
       </c>
       <c r="S102" s="10" t="s">
-        <v>1771</v>
+        <v>1775</v>
       </c>
       <c r="T102" s="10" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="U102" s="10" t="s">
-        <v>1773</v>
+        <v>1777</v>
       </c>
       <c r="V102" s="10" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="W102" s="10" t="s">
-        <v>1775</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="103">
@@ -39019,7 +39068,7 @@
         <v>744</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C103" s="10" t="s">
         <v>754</v>
@@ -39033,91 +39082,91 @@
         <v>752</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="E104" s="10" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="G104" s="10" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
       <c r="H104" s="10" t="s">
-        <v>1779</v>
+        <v>1783</v>
       </c>
       <c r="I104" s="10" t="s">
-        <v>1780</v>
+        <v>1784</v>
       </c>
       <c r="J104" s="10" t="s">
         <v>754</v>
       </c>
       <c r="K104" s="10" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="L104" s="10" t="s">
-        <v>1782</v>
+        <v>1786</v>
       </c>
       <c r="M104" s="10" t="s">
-        <v>1783</v>
+        <v>1787</v>
       </c>
       <c r="N104" s="10" t="s">
         <v>681</v>
       </c>
       <c r="O104" s="10" t="s">
-        <v>1784</v>
+        <v>1788</v>
       </c>
       <c r="P104" s="10" t="s">
-        <v>1785</v>
+        <v>1789</v>
       </c>
       <c r="Q104" s="10" t="s">
-        <v>1786</v>
+        <v>1790</v>
       </c>
       <c r="R104" s="10" t="s">
         <v>235</v>
       </c>
       <c r="S104" s="10" t="s">
-        <v>1787</v>
+        <v>1791</v>
       </c>
       <c r="T104" s="10" t="s">
-        <v>1788</v>
+        <v>1792</v>
       </c>
       <c r="U104" s="10" t="s">
-        <v>1789</v>
+        <v>1793</v>
       </c>
       <c r="V104" s="10" t="s">
-        <v>1790</v>
+        <v>1794</v>
       </c>
       <c r="W104" s="10" t="s">
-        <v>1791</v>
+        <v>1795</v>
       </c>
       <c r="X104" s="10" t="s">
-        <v>1792</v>
+        <v>1796</v>
       </c>
       <c r="Y104" s="10" t="s">
-        <v>1793</v>
+        <v>1797</v>
       </c>
       <c r="Z104" s="10" t="s">
-        <v>1794</v>
+        <v>1798</v>
       </c>
       <c r="AA104" s="10" t="s">
-        <v>1795</v>
+        <v>1799</v>
       </c>
       <c r="AB104" s="10" t="s">
-        <v>1796</v>
+        <v>1800</v>
       </c>
       <c r="AC104" s="10" t="s">
-        <v>1797</v>
+        <v>1801</v>
       </c>
       <c r="AD104" s="10" t="s">
-        <v>1798</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="105">
@@ -39125,7 +39174,7 @@
         <v>763</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>1799</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="106">
@@ -39148,28 +39197,28 @@
         <v>824</v>
       </c>
       <c r="G106" s="10" t="s">
-        <v>1800</v>
+        <v>1804</v>
       </c>
       <c r="H106" s="10" t="s">
-        <v>1801</v>
+        <v>1805</v>
       </c>
       <c r="I106" s="10" t="s">
         <v>758</v>
       </c>
       <c r="J106" s="10" t="s">
-        <v>1802</v>
+        <v>1806</v>
       </c>
       <c r="K106" s="10" t="s">
-        <v>1803</v>
+        <v>1807</v>
       </c>
       <c r="L106" s="10" t="s">
-        <v>1804</v>
+        <v>1808</v>
       </c>
       <c r="M106" s="10" t="s">
-        <v>1805</v>
+        <v>1809</v>
       </c>
       <c r="N106" s="10" t="s">
-        <v>1806</v>
+        <v>1810</v>
       </c>
       <c r="O106" s="25"/>
       <c r="P106" s="25"/>
@@ -39383,13 +39432,13 @@
         <v>778</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>1807</v>
+        <v>1811</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>1808</v>
+        <v>1812</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>1809</v>
+        <v>1813</v>
       </c>
       <c r="E107" s="10" t="s">
         <v>278</v>
@@ -39398,7 +39447,7 @@
         <v>770</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>1810</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="108">
@@ -39406,16 +39455,16 @@
         <v>788</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>1811</v>
+        <v>1815</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>1812</v>
+        <v>1816</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>1813</v>
+        <v>1817</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>1814</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="109">
@@ -39429,13 +39478,13 @@
         <v>510</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>1815</v>
+        <v>1819</v>
       </c>
       <c r="E109" s="10" t="s">
         <v>33</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>1816</v>
+        <v>1820</v>
       </c>
       <c r="G109" s="10" t="s">
         <v>335</v>
@@ -39658,13 +39707,13 @@
     </row>
     <row r="110">
       <c r="A110" s="10" t="s">
-        <v>1817</v>
+        <v>1821</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>1176</v>
+        <v>1180</v>
       </c>
       <c r="D110" s="10" t="s">
         <v>754</v>
